--- a/test2.xlsx
+++ b/test2.xlsx
@@ -399,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0417022004702574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>0.08</v>
       </c>
       <c r="C3">
-        <v>0.1717203836913345</v>
+        <v>0.09968793434711866</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>0.16</v>
       </c>
       <c r="C4">
-        <v>0.1975488484270921</v>
+        <v>0.1975374109453576</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>0.24</v>
       </c>
       <c r="C5">
-        <v>0.3235594490603007</v>
+        <v>0.2933261917971167</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>0.32</v>
       </c>
       <c r="C6">
-        <v>0.4015164503519343</v>
+        <v>0.386840861270223</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>0.4</v>
       </c>
       <c r="C7">
-        <v>0.4871110939008305</v>
+        <v>0.4778772344239507</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>0.48</v>
       </c>
       <c r="C8">
-        <v>0.5848667562737888</v>
+        <v>0.5662407351360217</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C9">
-        <v>0.686302816242651</v>
+        <v>0.6517467435383462</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>0.64</v>
       </c>
       <c r="C10">
-        <v>0.7738976597790069</v>
+        <v>0.7342209123559399</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>0.72</v>
       </c>
       <c r="C11">
-        <v>0.8673811252301248</v>
+        <v>0.8134994518297891</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>0.8</v>
       </c>
       <c r="C12">
-        <v>0.9313488344305565</v>
+        <v>0.889429382990227</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>0.88</v>
       </c>
       <c r="C13">
-        <v>1.030390709172085</v>
+        <v>0.9618687591324085</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>0.96</v>
       </c>
       <c r="C14">
-        <v>1.051132080402687</v>
+        <v>1.030686855429536</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>1.04</v>
       </c>
       <c r="C15">
-        <v>1.183576070341459</v>
+        <v>1.095764326702365</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>1.12</v>
       </c>
       <c r="C16">
-        <v>1.15973209276486</v>
+        <v>1.156993333445067</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>1.2</v>
       </c>
       <c r="C17">
-        <v>1.281324387305318</v>
+        <v>1.214277636287478</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>1.28</v>
       </c>
       <c r="C18">
-        <v>1.309263139388729</v>
+        <v>1.267532659152016</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>1.36</v>
       </c>
       <c r="C19">
-        <v>1.372554504284479</v>
+        <v>1.316685521439904</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>1.44</v>
       </c>
       <c r="C20">
-        <v>1.375713733515083</v>
+        <v>1.36167503965556</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>1.52</v>
       </c>
       <c r="C21">
-        <v>1.422261847858589</v>
+        <v>1.402451698950101</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>1.6</v>
       </c>
       <c r="C22">
-        <v>1.51905205200209</v>
+        <v>1.438977595134536</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>1.68</v>
       </c>
       <c r="C23">
-        <v>1.568052505352296</v>
+        <v>1.471226347780356</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>1.76</v>
       </c>
       <c r="C24">
-        <v>1.530525402905666</v>
+        <v>1.499182985089742</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>1.84</v>
       </c>
       <c r="C25">
-        <v>1.592076062846229</v>
+        <v>1.522843801279297</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>1.92</v>
       </c>
       <c r="C26">
-        <v>1.629855102509628</v>
+        <v>1.542216187280024</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>1.646779101962491</v>
+        <v>1.557318435612106</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>2.08</v>
       </c>
       <c r="C28">
-        <v>1.576683941482755</v>
+        <v>1.568179520345778</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>2.16</v>
       </c>
       <c r="C29">
-        <v>1.578744331432383</v>
+        <v>1.574838853109095</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>2.24</v>
       </c>
       <c r="C30">
-        <v>1.594329058106209</v>
+        <v>1.577346016149752</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>2.32</v>
       </c>
       <c r="C31">
-        <v>1.66357472384397</v>
+        <v>1.575760473501028</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>2.4</v>
       </c>
       <c r="C32">
-        <v>1.579985944724868</v>
+        <v>1.570151261341563</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>2.48</v>
       </c>
       <c r="C33">
-        <v>1.602707421175311</v>
+        <v>1.560596658674805</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>2.56</v>
       </c>
       <c r="C34">
-        <v>1.642972792501757</v>
+        <v>1.547183839486707</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>2.64</v>
       </c>
       <c r="C35">
-        <v>1.583325036066686</v>
+        <v>1.530008507569384</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>2.72</v>
       </c>
       <c r="C36">
-        <v>1.578362226619266</v>
+        <v>1.509174515224218</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>2.8</v>
       </c>
       <c r="C37">
-        <v>1.516345030180579</v>
+        <v>1.484793467079973</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>2.88</v>
       </c>
       <c r="C38">
-        <v>1.525634403048328</v>
+        <v>1.45698431028017</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>2.96</v>
       </c>
       <c r="C39">
-        <v>1.509335479498808</v>
+        <v>1.425872912309071</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>3.04</v>
       </c>
       <c r="C40">
-        <v>1.393420455471652</v>
+        <v>1.391591627737232</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>3.12</v>
       </c>
       <c r="C41">
-        <v>1.429293286670228</v>
+        <v>1.354278855175731</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>3.2</v>
       </c>
       <c r="C42">
-        <v>1.412964694623501</v>
+        <v>1.314078585732852</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>3.28</v>
       </c>
       <c r="C43">
-        <v>1.345956509706337</v>
+        <v>1.271139944268353</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>3.36</v>
       </c>
       <c r="C44">
-        <v>1.253661123944773</v>
+        <v>1.225616724738332</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>3.44</v>
       </c>
       <c r="C45">
-        <v>1.256594853763563</v>
+        <v>1.177666920918414</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>3.52</v>
       </c>
       <c r="C46">
-        <v>1.13777485444216</v>
+        <v>1.127452253784396</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>3.6</v>
       </c>
       <c r="C47">
-        <v>1.119927049435369</v>
+        <v>1.075137696817778</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>3.68</v>
       </c>
       <c r="C48">
-        <v>1.111750550798128</v>
+        <v>1.020891000488818</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>3.76</v>
       </c>
       <c r="C49">
-        <v>0.9942436319893524</v>
+        <v>0.9648822171519844</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>3.84</v>
       </c>
       <c r="C50">
-        <v>0.9360607614266493</v>
+        <v>0.9072832275680144</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>3.92</v>
       </c>
       <c r="C51">
-        <v>0.8612701274551718</v>
+        <v>0.848267270243344</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="C52">
-        <v>0.7899451705385508</v>
+        <v>0.7880084747515211</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>4.08</v>
       </c>
       <c r="C53">
-        <v>0.7945649534664952</v>
+        <v>0.7266814001725062</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>4.16</v>
       </c>
       <c r="C54">
-        <v>0.6856233913545914</v>
+        <v>0.6644605797545855</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>4.24</v>
       </c>
       <c r="C55">
-        <v>0.6280747388073153</v>
+        <v>0.6015200728700927</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>4.32</v>
       </c>
       <c r="C56">
-        <v>0.5871903412284251</v>
+        <v>0.5380330253003912</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>4.4</v>
       </c>
       <c r="C57">
-        <v>0.4795074933594524</v>
+        <v>0.4741712388477443</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>4.48</v>
       </c>
       <c r="C58">
-        <v>0.4675165117810766</v>
+        <v>0.4101047512318752</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>4.56</v>
       </c>
       <c r="C59">
-        <v>0.360674284678004</v>
+        <v>0.346001427187423</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>4.64</v>
       </c>
       <c r="C60">
-        <v>0.3409571153254765</v>
+        <v>0.282026561635148</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>4.72</v>
       </c>
       <c r="C61">
-        <v>0.2883183317569721</v>
+        <v>0.218342495754879</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>4.8</v>
       </c>
       <c r="C62">
-        <v>0.1653416896246858</v>
+        <v>0.1551082467419032</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>4.88</v>
       </c>
       <c r="C63">
-        <v>0.1338847507628753</v>
+        <v>0.09247915198091851</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>4.96</v>
       </c>
       <c r="C64">
-        <v>0.1000465440957616</v>
+        <v>0.03060652832298704</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>5.04</v>
       </c>
       <c r="C65">
-        <v>0.01105527405392299</v>
+        <v>-0.03036265289876727</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>5.12</v>
       </c>
       <c r="C66">
-        <v>-0.08529072863489158</v>
+        <v>-0.0902860745295003</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>5.2</v>
       </c>
       <c r="C67">
-        <v>-0.09543672480350193</v>
+        <v>-0.1490263653950531</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>5.28</v>
       </c>
       <c r="C68">
-        <v>-0.1400719102422417</v>
+        <v>-0.2064513747642206</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>5.36</v>
       </c>
       <c r="C69">
-        <v>-0.2109455178350774</v>
+        <v>-0.2624344290409082</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>5.44</v>
       </c>
       <c r="C70">
-        <v>-0.2223950947095953</v>
+        <v>-0.3168545703086766</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>5.52</v>
       </c>
       <c r="C71">
-        <v>-0.3109412723525969</v>
+        <v>-0.3695967764027963</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="C72">
-        <v>-0.3302119707087693</v>
+        <v>-0.4205521622375576</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>5.68</v>
       </c>
       <c r="C73">
-        <v>-0.4558706917544393</v>
+        <v>-0.469618162169063</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>5.76</v>
       </c>
       <c r="C74">
-        <v>-0.5027710585008801</v>
+        <v>-0.516698693225956</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>5.84</v>
       </c>
       <c r="C75">
-        <v>-0.4809651702213779</v>
+        <v>-0.5617042990923302</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>5.92</v>
       </c>
       <c r="C76">
-        <v>-0.5647845910798517</v>
+        <v>-0.604552274778405</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>6</v>
       </c>
       <c r="C77">
-        <v>-0.6286313522534511</v>
+        <v>-0.6451667719651444</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>6.08</v>
       </c>
       <c r="C78">
-        <v>-0.5907280270193097</v>
+        <v>-0.6834788850589131</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>6.16</v>
       </c>
       <c r="C79">
-        <v>-0.6846501320666817</v>
+        <v>-0.7194267180412324</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>6.24</v>
       </c>
       <c r="C80">
-        <v>-0.6778742219330907</v>
+        <v>-0.7529554322467062</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>6.32</v>
       </c>
       <c r="C81">
-        <v>-0.711417476714029</v>
+        <v>-0.7840172752490742</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>6.4</v>
       </c>
       <c r="C82">
-        <v>-0.7242409819604508</v>
+        <v>-0.8125715910810318</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>6.48</v>
       </c>
       <c r="C83">
-        <v>-0.7762175913522894</v>
+        <v>-0.8385848120578503</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>6.56</v>
       </c>
       <c r="C84">
-        <v>-0.7869361891150581</v>
+        <v>-0.8620304325177919</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>6.640000000000001</v>
       </c>
       <c r="C85">
-        <v>-0.847999130636042</v>
+        <v>-0.8828889648338263</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>6.72</v>
       </c>
       <c r="C86">
-        <v>-0.8741550889145762</v>
+        <v>-0.9011478780910788</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>6.8</v>
       </c>
       <c r="C87">
-        <v>-0.8272128980431059</v>
+        <v>-0.9168015198627126</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1345,7 +1345,7 @@
         <v>6.88</v>
       </c>
       <c r="C88">
-        <v>-0.8870419025663839</v>
+        <v>-0.9298510215535134</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>6.96</v>
       </c>
       <c r="C89">
-        <v>-0.8438201831003734</v>
+        <v>-0.940304187815212</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>7.04</v>
       </c>
       <c r="C90">
-        <v>-0.8818312207886739</v>
+        <v>-0.9481753705705187</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>7.12</v>
       </c>
       <c r="C91">
-        <v>-0.8913157561929372</v>
+        <v>-0.9534853282138495</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>7.2</v>
       </c>
       <c r="C92">
-        <v>-0.9447864732904775</v>
+        <v>-0.956261070585815</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1400,7 +1400,7 @@
         <v>7.28</v>
       </c>
       <c r="C93">
-        <v>-0.8615867644748973</v>
+        <v>-0.9565356903456045</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>7.36</v>
       </c>
       <c r="C94">
-        <v>-0.9093569680424564</v>
+        <v>-0.9543481813904504</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>7.44</v>
       </c>
       <c r="C95">
-        <v>-0.8919042835556185</v>
+        <v>-0.9497432449943316</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>7.52</v>
       </c>
       <c r="C96">
-        <v>-0.9019574040828331</v>
+        <v>-0.9427710843589612</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>7.600000000000001</v>
       </c>
       <c r="C97">
-        <v>-0.9097844902645746</v>
+        <v>-0.9334871882888774</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1455,7 +1455,7 @@
         <v>7.68</v>
       </c>
       <c r="C98">
-        <v>-0.8316141526628774</v>
+        <v>-0.9219521047191028</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1466,7 +1466,7 @@
         <v>7.76</v>
       </c>
       <c r="C99">
-        <v>-0.8508632561711199</v>
+        <v>-0.9082312048383485</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1477,7 +1477,7 @@
         <v>7.84</v>
       </c>
       <c r="C100">
-        <v>-0.8921074058599944</v>
+        <v>-0.8923944385631103</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>7.92</v>
       </c>
       <c r="C101">
-        <v>-0.8128015907661671</v>
+        <v>-0.8745160821282395</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1499,7 +1499,7 @@
         <v>8</v>
       </c>
       <c r="C102">
-        <v>-0.82200998839046</v>
+        <v>-0.8546744785676696</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1510,7 +1510,7 @@
         <v>8.08</v>
       </c>
       <c r="C103">
-        <v>-0.7802459616392206</v>
+        <v>-0.8329517718649815</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>8.16</v>
       </c>
       <c r="C104">
-        <v>-0.7208394256262824</v>
+        <v>-0.8094336355573599</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1532,7 +1532,7 @@
         <v>8.24</v>
       </c>
       <c r="C105">
-        <v>-0.7484820205780759</v>
+        <v>-0.7842089965783259</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>8.32</v>
       </c>
       <c r="C106">
-        <v>-0.6665162400324114</v>
+        <v>-0.7573697551243913</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>8.4</v>
       </c>
       <c r="C107">
-        <v>-0.6666744897493475</v>
+        <v>-0.7290105013285277</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1565,7 +1565,7 @@
         <v>8.48</v>
       </c>
       <c r="C108">
-        <v>-0.6976461052344815</v>
+        <v>-0.6992282295191371</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1576,7 +1576,7 @@
         <v>8.56</v>
       </c>
       <c r="C109">
-        <v>-0.5751783274626586</v>
+        <v>-0.6681220508370348</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1587,7 +1587,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="C110">
-        <v>-0.5667032132232431</v>
+        <v>-0.6357929049749356</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1598,7 +1598,7 @@
         <v>8.720000000000001</v>
       </c>
       <c r="C111">
-        <v>-0.5026109867488835</v>
+        <v>-0.6023432717940316</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1609,7 +1609,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="C112">
-        <v>-0.5506428327260695</v>
+        <v>-0.5678768835606024</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1620,7 +1620,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="C113">
-        <v>-0.5187848635693284</v>
+        <v>-0.5324984385322161</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1631,7 +1631,7 @@
         <v>8.960000000000001</v>
       </c>
       <c r="C114">
-        <v>-0.4030537703042951</v>
+        <v>-0.4963133166080115</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1642,7 +1642,7 @@
         <v>9.040000000000001</v>
       </c>
       <c r="C115">
-        <v>-0.3897454815919472</v>
+        <v>-0.4594272977409372</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1653,7 +1653,7 @@
         <v>9.120000000000001</v>
       </c>
       <c r="C116">
-        <v>-0.4153462665194111</v>
+        <v>-0.4219462837916174</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1664,7 +1664,7 @@
         <v>9.200000000000001</v>
       </c>
       <c r="C117">
-        <v>-0.308429719223667</v>
+        <v>-0.3839760244839136</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="C118">
-        <v>-0.2702342292550859</v>
+        <v>-0.3456218481012105</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1686,7 +1686,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="C119">
-        <v>-0.2146859439854904</v>
+        <v>-0.3069883975401387</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1697,7 +1697,7 @@
         <v>9.44</v>
       </c>
       <c r="C120">
-        <v>-0.1970268964520616</v>
+        <v>-0.2681793723149088</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1708,7 +1708,7 @@
         <v>9.52</v>
       </c>
       <c r="C121">
-        <v>-0.2168701808834778</v>
+        <v>-0.2292972770806943</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1719,7 +1719,7 @@
         <v>9.6</v>
       </c>
       <c r="C122">
-        <v>-0.1884551638347733</v>
+        <v>-0.1904431772187529</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1730,7 +1730,7 @@
         <v>9.68</v>
       </c>
       <c r="C123">
-        <v>-0.1490953633114341</v>
+        <v>-0.151716461999206</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>9.76</v>
       </c>
       <c r="C124">
-        <v>-0.1103839670076698</v>
+        <v>-0.1132146158097493</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1752,7 +1752,7 @@
         <v>9.84</v>
       </c>
       <c r="C125">
-        <v>-0.05041189114975964</v>
+        <v>-0.07503299791006422</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>9.92</v>
       </c>
       <c r="C126">
-        <v>0.04873816372575153</v>
+        <v>-0.03726463114253728</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1774,7 +1774,7 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>0.05388310643416511</v>
+        <v>-1.802089520410896e-16</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1785,7 +1785,7 @@
         <v>10.08</v>
       </c>
       <c r="C128">
-        <v>0.09195533944773017</v>
+        <v>0.03667314157915358</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>10.16</v>
       </c>
       <c r="C129">
-        <v>0.1568730415849921</v>
+        <v>0.07266995234903151</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1807,7 +1807,7 @@
         <v>10.24</v>
       </c>
       <c r="C130">
-        <v>0.1203260070312618</v>
+        <v>0.1079086755192707</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1818,7 +1818,7 @@
         <v>10.32</v>
       </c>
       <c r="C131">
-        <v>0.1702291677674828</v>
+        <v>0.1423107998663689</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1829,7 +1829,7 @@
         <v>10.4</v>
       </c>
       <c r="C132">
-        <v>0.2343771370942662</v>
+        <v>0.1758012099484374</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1840,7 +1840,7 @@
         <v>10.48</v>
       </c>
       <c r="C133">
-        <v>0.3052679000423136</v>
+        <v>0.2083083252103461</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1851,7 +1851,7 @@
         <v>10.56</v>
       </c>
       <c r="C134">
-        <v>0.2958672497237652</v>
+        <v>0.2397642277981942</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1862,7 +1862,7 @@
         <v>10.64</v>
       </c>
       <c r="C135">
-        <v>0.2719695078711843</v>
+        <v>0.27010477893389</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>10.72</v>
       </c>
       <c r="C136">
-        <v>0.3793329910004791</v>
+        <v>0.2992697237324175</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1884,7 +1884,7 @@
         <v>10.8</v>
       </c>
       <c r="C137">
-        <v>0.3505002117600077</v>
+        <v>0.3272027843759057</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1895,7 +1895,7 @@
         <v>10.88</v>
       </c>
       <c r="C138">
-        <v>0.434562261151777</v>
+        <v>0.3538517415898991</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1906,7 +1906,7 @@
         <v>10.96</v>
       </c>
       <c r="C139">
-        <v>0.4179545688045861</v>
+        <v>0.379168504398169</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>11.04</v>
       </c>
       <c r="C140">
-        <v>0.4894633536188105</v>
+        <v>0.4031091681628676</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1928,7 +1928,7 @@
         <v>11.12</v>
       </c>
       <c r="C141">
-        <v>0.5003462252205741</v>
+        <v>0.4256340609468556</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1939,7 +1939,7 @@
         <v>11.2</v>
       </c>
       <c r="C142">
-        <v>0.5023318016634594</v>
+        <v>0.4467077782644175</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1950,7 +1950,7 @@
         <v>11.28</v>
       </c>
       <c r="C143">
-        <v>0.4799447288814644</v>
+        <v>0.4662992063153959</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1961,7 +1961,7 @@
         <v>11.36</v>
       </c>
       <c r="C144">
-        <v>0.4903733027770619</v>
+        <v>0.4843815338258407</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1972,7 +1972,7 @@
         <v>11.44</v>
       </c>
       <c r="C145">
-        <v>0.5130665982196626</v>
+        <v>0.5009322526455888</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>11.52</v>
       </c>
       <c r="C146">
-        <v>0.5203883351341794</v>
+        <v>0.5159331472797032</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1994,7 +1994,7 @@
         <v>11.6</v>
       </c>
       <c r="C147">
-        <v>0.5401196864669283</v>
+        <v>0.529370273556319</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2005,7 +2005,7 @@
         <v>11.68</v>
       </c>
       <c r="C148">
-        <v>0.5638048605189248</v>
+        <v>0.5412339266581393</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2016,7 +2016,7 @@
         <v>11.76</v>
       </c>
       <c r="C149">
-        <v>0.6228174968068165</v>
+        <v>0.5515185987685489</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2027,7 +2027,7 @@
         <v>11.84</v>
       </c>
       <c r="C150">
-        <v>0.6161946248114371</v>
+        <v>0.5602229266060228</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>11.92</v>
       </c>
       <c r="C151">
-        <v>0.568605227158039</v>
+        <v>0.5673496291421274</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2049,7 +2049,7 @@
         <v>12</v>
       </c>
       <c r="C152">
-        <v>0.5801028637879149</v>
+        <v>0.5729054358189662</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>12.08</v>
       </c>
       <c r="C153">
-        <v>0.6736286386013322</v>
+        <v>0.576901005601305</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2071,7 +2071,7 @@
         <v>12.16</v>
       </c>
       <c r="C154">
-        <v>0.636160883408843</v>
+        <v>0.5793508372168488</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>12.24</v>
       </c>
       <c r="C155">
-        <v>0.6006024944212704</v>
+        <v>0.5802731709551714</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2093,7 +2093,7 @@
         <v>12.32</v>
       </c>
       <c r="C156">
-        <v>0.6049224568686378</v>
+        <v>0.5796898824116055</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2104,7 +2104,7 @@
         <v>12.4</v>
       </c>
       <c r="C157">
-        <v>0.6520089539844786</v>
+        <v>0.5776263685769693</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2115,7 +2115,7 @@
         <v>12.48</v>
       </c>
       <c r="C158">
-        <v>0.5936543747982392</v>
+        <v>0.5741114266873074</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2126,7 +2126,7 @@
         <v>12.56</v>
       </c>
       <c r="C159">
-        <v>0.6273130189871818</v>
+        <v>0.5691771262598561</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2137,7 +2137,7 @@
         <v>12.64</v>
       </c>
       <c r="C160">
-        <v>0.6598606736610085</v>
+        <v>0.5628586747521773</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2148,7 +2148,7 @@
         <v>12.72</v>
       </c>
       <c r="C161">
-        <v>0.6398771574398713</v>
+        <v>0.5551942772908678</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>12.8</v>
       </c>
       <c r="C162">
-        <v>0.5702097668391475</v>
+        <v>0.5462249909243888</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>12.88</v>
       </c>
       <c r="C163">
-        <v>0.5853715452883009</v>
+        <v>0.5359945738614279</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2181,7 +2181,7 @@
         <v>12.96</v>
       </c>
       <c r="C164">
-        <v>0.5865449019998957</v>
+        <v>0.5245493301617578</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>13.04</v>
       </c>
       <c r="C165">
-        <v>0.5948360403058488</v>
+        <v>0.5119379503508309</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2203,7 +2203,7 @@
         <v>13.12</v>
       </c>
       <c r="C166">
-        <v>0.5138904878969568</v>
+        <v>0.4982113484323484</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2214,7 +2214,7 @@
         <v>13.2</v>
       </c>
       <c r="C167">
-        <v>0.4852801159925016</v>
+        <v>0.4834224957747607</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2225,7 +2225,7 @@
         <v>13.28</v>
       </c>
       <c r="C168">
-        <v>0.4746284667200621</v>
+        <v>0.4676262523481399</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>13.36</v>
       </c>
       <c r="C169">
-        <v>0.4995137068808144</v>
+        <v>0.4508791957871112</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>13.44</v>
       </c>
       <c r="C170">
-        <v>0.4938723949188922</v>
+        <v>0.4332394487535591</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2258,7 +2258,7 @@
         <v>13.52</v>
       </c>
       <c r="C171">
-        <v>0.4716516487783352</v>
+        <v>0.414766505069687</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>13.6</v>
       </c>
       <c r="C172">
-        <v>0.4272572960198921</v>
+        <v>0.395521055087676</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2280,7 +2280,7 @@
         <v>13.68</v>
       </c>
       <c r="C173">
-        <v>0.4744264261980262</v>
+        <v>0.3755648107567813</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>13.76</v>
       </c>
       <c r="C174">
-        <v>0.4129348527667139</v>
+        <v>0.3549603308421342</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2302,7 +2302,7 @@
         <v>13.84</v>
       </c>
       <c r="C175">
-        <v>0.3717849640042991</v>
+        <v>0.333770846741944</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>13.92</v>
       </c>
       <c r="C176">
-        <v>0.3671549112529362</v>
+        <v>0.3120600893411465</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2324,7 +2324,7 @@
         <v>14</v>
       </c>
       <c r="C177">
-        <v>0.3644255604206005</v>
+        <v>0.2898921173299502</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2335,7 +2335,7 @@
         <v>14.08</v>
       </c>
       <c r="C178">
-        <v>0.3342544367504612</v>
+        <v>0.2673311474051427</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>14.16</v>
       </c>
       <c r="C179">
-        <v>0.2709333425268502</v>
+        <v>0.2444413867605692</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>14.24</v>
       </c>
       <c r="C180">
-        <v>0.2279203517036994</v>
+        <v>0.2212868682608552</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2368,7 +2368,7 @@
         <v>14.32</v>
       </c>
       <c r="C181">
-        <v>0.2349397084706994</v>
+        <v>0.1979312886792887</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>14.4</v>
       </c>
       <c r="C182">
-        <v>0.2374096010690352</v>
+        <v>0.1744378503668788</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2390,7 +2390,7 @@
         <v>14.48</v>
       </c>
       <c r="C183">
-        <v>0.1718865076964195</v>
+        <v>0.1508691067049356</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>14.56</v>
       </c>
       <c r="C184">
-        <v>0.2025623670521126</v>
+        <v>0.1272868116782312</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>14.64</v>
       </c>
       <c r="C185">
-        <v>0.1104054220252532</v>
+        <v>0.1037517738898417</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>14.72</v>
       </c>
       <c r="C186">
-        <v>0.1063552251801369</v>
+        <v>0.08032371532228282</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>14.8</v>
       </c>
       <c r="C187">
-        <v>0.1375365915068278</v>
+        <v>0.05706113513249325</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>14.88</v>
       </c>
       <c r="C188">
-        <v>0.05336460701308146</v>
+        <v>0.03402117875074868</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>14.96</v>
       </c>
       <c r="C189">
-        <v>0.07520560062365252</v>
+        <v>0.0112595125356585</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2467,7 +2467,7 @@
         <v>15.04</v>
       </c>
       <c r="C190">
-        <v>0.0412972351314925</v>
+        <v>-0.01116979578088087</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2478,7 +2478,7 @@
         <v>15.12</v>
       </c>
       <c r="C191">
-        <v>0.05926640639645923</v>
+        <v>-0.03321439064347584</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>15.2</v>
       </c>
       <c r="C192">
-        <v>-0.02849405897263246</v>
+        <v>-0.05482373602134356</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2500,7 +2500,7 @@
         <v>15.28</v>
       </c>
       <c r="C193">
-        <v>-0.06935310730893553</v>
+        <v>-0.07594921637733791</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>15.36</v>
       </c>
       <c r="C194">
-        <v>-0.02303763477084879</v>
+        <v>-0.09654423109971574</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2522,7 +2522,7 @@
         <v>15.44</v>
       </c>
       <c r="C195">
-        <v>-0.03934647930344887</v>
+        <v>-0.1165642822577735</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>15.52</v>
       </c>
       <c r="C196">
-        <v>-0.04518547031147435</v>
+        <v>-0.1359670555618268</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2544,7 +2544,7 @@
         <v>15.6</v>
       </c>
       <c r="C197">
-        <v>-0.06151528750771028</v>
+        <v>-0.154712494427394</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2555,7 +2555,7 @@
         <v>15.68</v>
       </c>
       <c r="C198">
-        <v>-0.1713677097651551</v>
+        <v>-0.1727628670627148</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2566,7 +2566,7 @@
         <v>15.76</v>
       </c>
       <c r="C199">
-        <v>-0.1666466179058372</v>
+        <v>-0.1900828265179793</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2577,7 +2577,7 @@
         <v>15.84</v>
       </c>
       <c r="C200">
-        <v>-0.144961627953517</v>
+        <v>-0.2066394636536828</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2588,7 +2588,7 @@
         <v>15.92</v>
       </c>
       <c r="C201">
-        <v>-0.127500720935642</v>
+        <v>-0.2224023530044036</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2599,7 +2599,7 @@
         <v>16</v>
       </c>
       <c r="C202">
-        <v>-0.1423259796082126</v>
+        <v>-0.2373435915329206</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2610,7 +2610,7 @@
         <v>16.08</v>
       </c>
       <c r="C203">
-        <v>-0.1957725114684378</v>
+        <v>-0.2514378302879534</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>16.16</v>
       </c>
       <c r="C204">
-        <v>-0.1731016640201861</v>
+        <v>-0.2646622989968136</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2632,7 +2632,7 @@
         <v>16.24</v>
       </c>
       <c r="C205">
-        <v>-0.2128402027472867</v>
+        <v>-0.2769968236419204</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2643,7 +2643,7 @@
         <v>16.32</v>
       </c>
       <c r="C206">
-        <v>-0.2494230656732615</v>
+        <v>-0.2884238370873861</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>16.4</v>
       </c>
       <c r="C207">
-        <v>-0.2503293161289883</v>
+        <v>-0.2989283828386793</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2665,7 +2665,7 @@
         <v>16.48</v>
       </c>
       <c r="C208">
-        <v>-0.2480670637427037</v>
+        <v>-0.3084981120347011</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2676,7 +2676,7 @@
         <v>16.56</v>
       </c>
       <c r="C209">
-        <v>-0.2621684816365656</v>
+        <v>-0.3171232737874219</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2687,7 +2687,7 @@
         <v>16.64</v>
       </c>
       <c r="C210">
-        <v>-0.2321785563288556</v>
+        <v>-0.324796698999501</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2698,7 +2698,7 @@
         <v>16.72</v>
       </c>
       <c r="C211">
-        <v>-0.2396404342416161</v>
+        <v>-0.3315137778049768</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2709,7 +2709,7 @@
         <v>16.8</v>
       </c>
       <c r="C212">
-        <v>-0.2977848694998683</v>
+        <v>-0.3372724307922237</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>16.88</v>
       </c>
       <c r="C213">
-        <v>-0.24574682133773</v>
+        <v>-0.3420730741818012</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>16.96</v>
       </c>
       <c r="C214">
-        <v>-0.3285230124765807</v>
+        <v>-0.3459185791446271</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2742,7 +2742,7 @@
         <v>17.04</v>
       </c>
       <c r="C215">
-        <v>-0.3361812735140439</v>
+        <v>-0.3488142254580077</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2753,7 +2753,7 @@
         <v>17.12</v>
       </c>
       <c r="C216">
-        <v>-0.3372597339038071</v>
+        <v>-0.3507676497084802</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2764,7 +2764,7 @@
         <v>17.2</v>
       </c>
       <c r="C217">
-        <v>-0.3012225716934251</v>
+        <v>-0.3517887882611148</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>17.28</v>
       </c>
       <c r="C218">
-        <v>-0.349737334697461</v>
+        <v>-0.3518898152248808</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>17.36</v>
       </c>
       <c r="C219">
-        <v>-0.256288054531133</v>
+        <v>-0.3510850756529011</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2797,7 +2797,7 @@
         <v>17.44</v>
       </c>
       <c r="C220">
-        <v>-0.2666794671077936</v>
+        <v>-0.3493910142248668</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2808,7 +2808,7 @@
         <v>17.52</v>
       </c>
       <c r="C221">
-        <v>-0.3453242015923572</v>
+        <v>-0.3468260996665694</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2819,7 +2819,7 @@
         <v>17.6</v>
       </c>
       <c r="C222">
-        <v>-0.3257911196109076</v>
+        <v>-0.3434107451684131</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>17.68</v>
       </c>
       <c r="C223">
-        <v>-0.305960867634215</v>
+        <v>-0.3391672250708987</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2841,7 +2841,7 @@
         <v>17.76</v>
       </c>
       <c r="C224">
-        <v>-0.3210199036093057</v>
+        <v>-0.3341195880903973</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2852,7 +2852,7 @@
         <v>17.84</v>
       </c>
       <c r="C225">
-        <v>-0.2473444981504419</v>
+        <v>-0.3282935673631001</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2863,7 +2863,7 @@
         <v>17.92</v>
       </c>
       <c r="C226">
-        <v>-0.2872428223204463</v>
+        <v>-0.3217164875887757</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2874,7 +2874,7 @@
         <v>18</v>
       </c>
       <c r="C227">
-        <v>-0.2204064213256315</v>
+        <v>-0.3144171695589683</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2885,7 +2885,7 @@
         <v>18.08</v>
       </c>
       <c r="C228">
-        <v>-0.2482244143617441</v>
+        <v>-0.3064258323564521</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2896,7 +2896,7 @@
         <v>18.16</v>
       </c>
       <c r="C229">
-        <v>-0.209890795073026</v>
+        <v>-0.2977739935142104</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2907,7 +2907,7 @@
         <v>18.24</v>
       </c>
       <c r="C230">
-        <v>-0.2040209228836298</v>
+        <v>-0.2884943674228519</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2918,7 +2918,7 @@
         <v>18.32</v>
       </c>
       <c r="C231">
-        <v>-0.1880815304044484</v>
+        <v>-0.2786207622753133</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2929,7 +2929,7 @@
         <v>18.4</v>
       </c>
       <c r="C232">
-        <v>-0.2221999492551708</v>
+        <v>-0.2681879758368515</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2940,7 +2940,7 @@
         <v>18.48</v>
       </c>
       <c r="C233">
-        <v>-0.2025970087247597</v>
+        <v>-0.257231690326797</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2951,7 +2951,7 @@
         <v>18.56</v>
       </c>
       <c r="C234">
-        <v>-0.1659280075810427</v>
+        <v>-0.2457883666962466</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2962,7 +2962,7 @@
         <v>18.64</v>
       </c>
       <c r="C235">
-        <v>-0.2053232534095327</v>
+        <v>-0.2338951385829475</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2973,7 +2973,7 @@
         <v>18.72</v>
       </c>
       <c r="C236">
-        <v>-0.1725643539589743</v>
+        <v>-0.221589706220967</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2984,7 +2984,7 @@
         <v>18.8</v>
       </c>
       <c r="C237">
-        <v>-0.1489991998138669</v>
+        <v>-0.2089102305784547</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2995,7 +2995,7 @@
         <v>18.88</v>
       </c>
       <c r="C238">
-        <v>-0.194341900436814</v>
+        <v>-0.1958952279918976</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3006,7 +3006,7 @@
         <v>18.96</v>
       </c>
       <c r="C239">
-        <v>-0.1232353247400369</v>
+        <v>-0.1825834655597006</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3017,7 +3017,7 @@
         <v>19.04</v>
       </c>
       <c r="C240">
-        <v>-0.1256462226528961</v>
+        <v>-0.1690138575518419</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>19.12</v>
       </c>
       <c r="C241">
-        <v>-0.07448931019714294</v>
+        <v>-0.1552253630856271</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3039,7 +3039,7 @@
         <v>19.2</v>
       </c>
       <c r="C242">
-        <v>-0.1097324050008374</v>
+        <v>-0.1412568853103748</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3050,7 +3050,7 @@
         <v>19.28</v>
       </c>
       <c r="C243">
-        <v>-0.03785830148359889</v>
+        <v>-0.127147172336114</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3061,7 +3061,7 @@
         <v>19.36</v>
       </c>
       <c r="C244">
-        <v>-0.0551489986047291</v>
+        <v>-0.1129347201331826</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3072,7 +3072,7 @@
         <v>19.44</v>
       </c>
       <c r="C245">
-        <v>-0.08025665745817012</v>
+        <v>-0.09865767762091664</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3083,7 +3083,7 @@
         <v>19.52</v>
       </c>
       <c r="C246">
-        <v>-0.005560830772029068</v>
+        <v>-0.0843537541545795</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3094,7 +3094,7 @@
         <v>19.6</v>
       </c>
       <c r="C247">
-        <v>-0.008857011905654938</v>
+        <v>-0.07006012961014833</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3105,7 +3105,7 @@
         <v>19.68</v>
       </c>
       <c r="C248">
-        <v>-0.05042244004940106</v>
+        <v>-0.05581336725677635</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3116,7 +3116,7 @@
         <v>19.76</v>
       </c>
       <c r="C249">
-        <v>0.0003700384035833018</v>
+        <v>-0.04164932959652992</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3127,7 +3127,7 @@
         <v>19.84</v>
       </c>
       <c r="C250">
-        <v>0.04030378631597022</v>
+        <v>-0.02760309734057274</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3138,7 +3138,7 @@
         <v>19.92</v>
       </c>
       <c r="C251">
-        <v>0.07815128611757646</v>
+        <v>-0.01370889168017612</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>20</v>
       </c>
       <c r="C252">
-        <v>4.020248913561072e-05</v>
+        <v>-1.325903371419345e-16</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3160,7 +3160,7 @@
         <v>20.08</v>
       </c>
       <c r="C253">
-        <v>0.1111672097332461</v>
+        <v>0.01349129483014013</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3171,7 +3171,7 @@
         <v>20.16</v>
       </c>
       <c r="C254">
-        <v>0.06439181293469468</v>
+        <v>0.02673378146011723</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3182,7 +3182,7 @@
         <v>20.24</v>
       </c>
       <c r="C255">
-        <v>0.1370757370834122</v>
+        <v>0.03969738324757997</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3193,7 +3193,7 @@
         <v>20.32</v>
       </c>
       <c r="C256">
-        <v>0.112824827624906</v>
+        <v>0.05235321752750068</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3204,7 +3204,7 @@
         <v>20.4</v>
       </c>
       <c r="C257">
-        <v>0.1475582316711642</v>
+        <v>0.06467365087309493</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3215,7 +3215,7 @@
         <v>20.48</v>
       </c>
       <c r="C258">
-        <v>0.1341035007405516</v>
+        <v>0.07663235026974136</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3226,7 +3226,7 @@
         <v>20.56</v>
       </c>
       <c r="C259">
-        <v>0.1510119499660368</v>
+        <v>0.08820433013530181</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3237,7 +3237,7 @@
         <v>20.64</v>
       </c>
       <c r="C260">
-        <v>0.1279236233015046</v>
+        <v>0.09936599513193517</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3248,7 +3248,7 @@
         <v>20.72</v>
       </c>
       <c r="C261">
-        <v>0.1687785127918215</v>
+        <v>0.1100951787262132</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>20.8</v>
       </c>
       <c r="C262">
-        <v>0.1953733538362141</v>
+        <v>0.1203711774659481</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3270,7 +3270,7 @@
         <v>20.88</v>
       </c>
       <c r="C263">
-        <v>0.2160061645965377</v>
+        <v>0.1301747809536335</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3281,7 +3281,7 @@
         <v>20.96</v>
       </c>
       <c r="C264">
-        <v>0.2149965163545777</v>
+        <v>0.1394882975078097</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3292,7 +3292,7 @@
         <v>21.04</v>
       </c>
       <c r="C265">
-        <v>0.218101300359571</v>
+        <v>0.1482955755148407</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3303,7 +3303,7 @@
         <v>21.12</v>
       </c>
       <c r="C266">
-        <v>0.2430299634901208</v>
+        <v>0.1565820204846609</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3314,7 +3314,7 @@
         <v>21.2</v>
       </c>
       <c r="C267">
-        <v>0.1966027075185248</v>
+        <v>0.1643346078348502</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3325,7 +3325,7 @@
         <v>21.28</v>
       </c>
       <c r="C268">
-        <v>0.2386207705167539</v>
+        <v>0.1715418914379952</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3336,7 +3336,7 @@
         <v>21.36</v>
       </c>
       <c r="C269">
-        <v>0.2232814016189514</v>
+        <v>0.1781940079776165</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3347,7 +3347,7 @@
         <v>21.44</v>
       </c>
       <c r="C270">
-        <v>0.2224929523711628</v>
+        <v>0.184282677168011</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3358,7 +3358,7 @@
         <v>21.52</v>
       </c>
       <c r="C271">
-        <v>0.2308823328952991</v>
+        <v>0.1898011979030805</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>21.6</v>
       </c>
       <c r="C272">
-        <v>0.2348923987556264</v>
+        <v>0.1947444404086724</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3380,7 +3380,7 @@
         <v>21.68</v>
       </c>
       <c r="C273">
-        <v>0.2308472290778493</v>
+        <v>0.1991088344820216</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3391,7 +3391,7 @@
         <v>21.76</v>
       </c>
       <c r="C274">
-        <v>0.2650842907026609</v>
+        <v>0.2028923539106307</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3402,7 +3402,7 @@
         <v>21.84</v>
       </c>
       <c r="C275">
-        <v>0.2491192242533799</v>
+        <v>0.2060944971712535</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3413,7 +3413,7 @@
         <v>21.92</v>
       </c>
       <c r="C276">
-        <v>0.3060964723103562</v>
+        <v>0.208716264517631</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3424,7 +3424,7 @@
         <v>22</v>
       </c>
       <c r="C277">
-        <v>0.278540220716594</v>
+        <v>0.2107601315731629</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3435,7 +3435,7 @@
         <v>22.08</v>
       </c>
       <c r="C278">
-        <v>0.2320870083945623</v>
+        <v>0.2122300195518512</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3446,7 +3446,7 @@
         <v>22.16</v>
       </c>
       <c r="C279">
-        <v>0.2558013631723449</v>
+        <v>0.2131312622375416</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3457,7 +3457,7 @@
         <v>22.24</v>
       </c>
       <c r="C280">
-        <v>0.2478051938352116</v>
+        <v>0.2134705698577693</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>22.32</v>
       </c>
       <c r="C281">
-        <v>0.2930198703901772</v>
+        <v>0.2132559899943205</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3479,7 +3479,7 @@
         <v>22.4</v>
       </c>
       <c r="C282">
-        <v>0.3004966945343282</v>
+        <v>0.212496865677985</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3490,7 +3490,7 @@
         <v>22.48</v>
       </c>
       <c r="C283">
-        <v>0.3015879864025033</v>
+        <v>0.2112037908198661</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3501,7 +3501,7 @@
         <v>22.56</v>
       </c>
       <c r="C284">
-        <v>0.2756605443735697</v>
+        <v>0.2093885631360435</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3512,7 +3512,7 @@
         <v>22.64</v>
       </c>
       <c r="C285">
-        <v>0.2340849609293054</v>
+        <v>0.2070641347263296</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3523,7 +3523,7 @@
         <v>22.72</v>
       </c>
       <c r="C286">
-        <v>0.2294812306218063</v>
+        <v>0.2042445604713474</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3534,7 +3534,7 @@
         <v>22.8</v>
       </c>
       <c r="C287">
-        <v>0.2864347386848806</v>
+        <v>0.2009449444151403</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3545,7 +3545,7 @@
         <v>22.88</v>
       </c>
       <c r="C288">
-        <v>0.2499528489339423</v>
+        <v>0.1971813843030677</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3556,7 +3556,7 @@
         <v>22.96</v>
       </c>
       <c r="C289">
-        <v>0.2731870228472217</v>
+        <v>0.1929709144467619</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3567,7 +3567,7 @@
         <v>23.04</v>
       </c>
       <c r="C290">
-        <v>0.245580298808678</v>
+        <v>0.1883314470895173</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>23.12</v>
       </c>
       <c r="C291">
-        <v>0.2565959649753142</v>
+        <v>0.1832817124465631</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3589,7 +3589,7 @@
         <v>23.2</v>
       </c>
       <c r="C292">
-        <v>0.2297423603417287</v>
+        <v>0.1778411975953232</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3600,7 +3600,7 @@
         <v>23.28</v>
       </c>
       <c r="C293">
-        <v>0.2491184754411184</v>
+        <v>0.1720300843909296</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3611,7 +3611,7 @@
         <v>23.36</v>
       </c>
       <c r="C294">
-        <v>0.2227549856524634</v>
+        <v>0.1658691865819919</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3622,7 +3622,7 @@
         <v>23.44</v>
       </c>
       <c r="C295">
-        <v>0.2059508741600812</v>
+        <v>0.1593798863008831</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3633,7 +3633,7 @@
         <v>23.52</v>
       </c>
       <c r="C296">
-        <v>0.1868529608969969</v>
+        <v>0.1525840701016687</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3644,7 +3644,7 @@
         <v>23.6</v>
       </c>
       <c r="C297">
-        <v>0.1523249995588637</v>
+        <v>0.1455040647171933</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3655,7 +3655,7 @@
         <v>23.68</v>
       </c>
       <c r="C298">
-        <v>0.1759549906376733</v>
+        <v>0.1381625727048633</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3666,7 +3666,7 @@
         <v>23.76</v>
       </c>
       <c r="C299">
-        <v>0.1385452159180599</v>
+        <v>0.1305826081482346</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3677,7 +3677,7 @@
         <v>23.84</v>
       </c>
       <c r="C300">
-        <v>0.2210691439517901</v>
+        <v>0.1227874325787456</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3688,7 +3688,7 @@
         <v>23.92</v>
       </c>
       <c r="C301">
-        <v>0.1329617764118075</v>
+        <v>0.1148004912787311</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3699,7 +3699,7 @@
         <v>24</v>
       </c>
       <c r="C302">
-        <v>0.1878312198954023</v>
+        <v>0.1066453501233483</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3710,7 +3710,7 @@
         <v>24.08</v>
       </c>
       <c r="C303">
-        <v>0.1858417976107142</v>
+        <v>0.09834563311512438</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3721,7 +3721,7 @@
         <v>24.16</v>
       </c>
       <c r="C304">
-        <v>0.158766285999245</v>
+        <v>0.08992496076065062</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3732,7 +3732,7 @@
         <v>24.24</v>
       </c>
       <c r="C305">
-        <v>0.1383563307089193</v>
+        <v>0.08140688943438175</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3743,7 +3743,7 @@
         <v>24.32</v>
       </c>
       <c r="C306">
-        <v>0.08891199555124107</v>
+        <v>0.07281485186968019</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3754,7 +3754,7 @@
         <v>24.4</v>
       </c>
       <c r="C307">
-        <v>0.1108601011884454</v>
+        <v>0.06417209891211478</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3765,7 +3765,7 @@
         <v>24.48</v>
       </c>
       <c r="C308">
-        <v>0.09001884778016792</v>
+        <v>0.05550164266464643</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3776,7 +3776,7 @@
         <v>24.56</v>
       </c>
       <c r="C309">
-        <v>0.0693301969300905</v>
+        <v>0.04682620114868204</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3787,7 +3787,7 @@
         <v>24.64</v>
       </c>
       <c r="C310">
-        <v>0.09741933147572052</v>
+        <v>0.03816814459914083</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3798,7 +3798,7 @@
         <v>24.72</v>
       </c>
       <c r="C311">
-        <v>0.06077642727576746</v>
+        <v>0.02954944350557576</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3809,7 +3809,7 @@
         <v>24.8</v>
       </c>
       <c r="C312">
-        <v>0.1126221738519849</v>
+        <v>0.02099161850514981</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3820,7 +3820,7 @@
         <v>24.88</v>
       </c>
       <c r="C313">
-        <v>0.1034792447219752</v>
+        <v>0.01251569222681951</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3831,7 +3831,7 @@
         <v>24.96</v>
       </c>
       <c r="C314">
-        <v>0.02985397255770056</v>
+        <v>0.004142143179480939</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3842,7 +3842,7 @@
         <v>25.04</v>
       </c>
       <c r="C315">
-        <v>0.006979991844533372</v>
+        <v>-0.004109138229869549</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3853,7 +3853,7 @@
         <v>25.12</v>
       </c>
       <c r="C316">
-        <v>0.007077381733139453</v>
+        <v>-0.01221889146877183</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3864,7 +3864,7 @@
         <v>25.2</v>
       </c>
       <c r="C317">
-        <v>0.02978989169742638</v>
+        <v>-0.02016852537046223</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3875,7 +3875,7 @@
         <v>25.28</v>
       </c>
       <c r="C318">
-        <v>0.04491841151915564</v>
+        <v>-0.02794015527830398</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3886,7 +3886,7 @@
         <v>25.36</v>
       </c>
       <c r="C319">
-        <v>-0.01469719394441083</v>
+        <v>-0.03551663778528998</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>25.44</v>
       </c>
       <c r="C320">
-        <v>-0.01807824717981686</v>
+        <v>-0.04288160301753994</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3908,7 +3908,7 @@
         <v>25.52</v>
       </c>
       <c r="C321">
-        <v>0.03514770307582522</v>
+        <v>-0.05001948441781149</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3919,7 +3919,7 @@
         <v>25.6</v>
       </c>
       <c r="C322">
-        <v>-0.01533067416543706</v>
+        <v>-0.05691554599218979</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3930,7 +3930,7 @@
         <v>25.68</v>
       </c>
       <c r="C323">
-        <v>-0.001887400274683787</v>
+        <v>-0.06355590699020741</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3941,7 +3941,7 @@
         <v>25.76</v>
       </c>
       <c r="C324">
-        <v>-0.04656095007179761</v>
+        <v>-0.06992756399572261</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3952,7 +3952,7 @@
         <v>25.84</v>
       </c>
       <c r="C325">
-        <v>-0.06582168447030361</v>
+        <v>-0.07601841041288335</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3963,7 +3963,7 @@
         <v>25.92</v>
       </c>
       <c r="C326">
-        <v>-0.0302315516416208</v>
+        <v>-0.08181725333847378</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3974,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="C327">
-        <v>-0.03959972911377564</v>
+        <v>-0.08731382781875388</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3985,7 +3985,7 @@
         <v>26.08</v>
       </c>
       <c r="C328">
-        <v>-0.07723164408637589</v>
+        <v>-0.09249880849569223</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3996,7 +3996,7 @@
         <v>26.16</v>
       </c>
       <c r="C329">
-        <v>-0.03518319548005538</v>
+        <v>-0.09736381865409693</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4007,7 +4007,7 @@
         <v>26.24</v>
       </c>
       <c r="C330">
-        <v>-0.04750042480626038</v>
+        <v>-0.1019014366876542</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4018,7 +4018,7 @@
         <v>26.32</v>
       </c>
       <c r="C331">
-        <v>-0.04069146531115643</v>
+        <v>-0.1061052000082309</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4029,7 +4029,7 @@
         <v>26.4</v>
       </c>
       <c r="C332">
-        <v>-0.09551505241651055</v>
+        <v>-0.1099696064289765</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4040,7 +4040,7 @@
         <v>26.48</v>
       </c>
       <c r="C333">
-        <v>-0.0383373313442463</v>
+        <v>-0.1134901130577707</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4051,7 +4051,7 @@
         <v>26.56</v>
       </c>
       <c r="C334">
-        <v>-0.09445821876338296</v>
+        <v>-0.1166631327433752</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4062,7 +4062,7 @@
         <v>26.64</v>
       </c>
       <c r="C335">
-        <v>-0.0675508456856623</v>
+        <v>-0.1194860281222656</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4073,7 +4073,7 @@
         <v>26.72</v>
       </c>
       <c r="C336">
-        <v>-0.04342750049736673</v>
+        <v>-0.1219571033195286</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4084,7 +4084,7 @@
         <v>26.8</v>
       </c>
       <c r="C337">
-        <v>-0.1218425505631966</v>
+        <v>-0.1240755933623772</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4095,7 +4095,7 @@
         <v>26.88</v>
       </c>
       <c r="C338">
-        <v>-0.09340540539717976</v>
+        <v>-0.1258416513697984</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4106,7 +4106,7 @@
         <v>26.96</v>
       </c>
       <c r="C339">
-        <v>-0.0399640959465337</v>
+        <v>-0.1272563335865448</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4117,7 +4117,7 @@
         <v>27.04</v>
       </c>
       <c r="C340">
-        <v>-0.0438506215739343</v>
+        <v>-0.1283215823341413</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4128,7 +4128,7 @@
         <v>27.12</v>
       </c>
       <c r="C341">
-        <v>-0.07519614769632152</v>
+        <v>-0.1290402069557759</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4139,7 +4139,7 @@
         <v>27.2</v>
       </c>
       <c r="C342">
-        <v>-0.04275503541922641</v>
+        <v>-0.1294158628358777</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4150,7 +4150,7 @@
         <v>27.28</v>
       </c>
       <c r="C343">
-        <v>-0.03447242944348855</v>
+        <v>-0.1294530285788512</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4161,7 +4161,7 @@
         <v>27.36</v>
       </c>
       <c r="C344">
-        <v>-0.04651628167188868</v>
+        <v>-0.1291569814348228</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4172,7 +4172,7 @@
         <v>27.44</v>
       </c>
       <c r="C345">
-        <v>-0.04312222667971362</v>
+        <v>-0.1285337710633675</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4183,7 +4183,7 @@
         <v>27.52</v>
       </c>
       <c r="C346">
-        <v>-0.1177158515469736</v>
+        <v>-0.1275901917290085</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4194,7 +4194,7 @@
         <v>27.6</v>
       </c>
       <c r="C347">
-        <v>-0.06120331979072534</v>
+        <v>-0.1263337530248244</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4205,7 +4205,7 @@
         <v>27.68</v>
       </c>
       <c r="C348">
-        <v>-0.05442095040748572</v>
+        <v>-0.124772649222751</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4216,7 +4216,7 @@
         <v>27.76</v>
       </c>
       <c r="C349">
-        <v>-0.06189164608646487</v>
+        <v>-0.1229157273511278</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4227,7 +4227,7 @@
         <v>27.84</v>
       </c>
       <c r="C350">
-        <v>-0.04081092792811372</v>
+        <v>-0.1207724541017165</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4238,7 +4238,7 @@
         <v>27.92</v>
       </c>
       <c r="C351">
-        <v>-0.1148957596826347</v>
+        <v>-0.1183528816697981</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4249,7 +4249,7 @@
         <v>28</v>
       </c>
       <c r="C352">
-        <v>-0.03864373917656186</v>
+        <v>-0.1156676126320599</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4260,7 +4260,7 @@
         <v>28.08</v>
       </c>
       <c r="C353">
-        <v>-0.039554903893833</v>
+        <v>-0.1127277639677857</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4271,7 +4271,7 @@
         <v>28.16</v>
       </c>
       <c r="C354">
-        <v>-0.08357509099956111</v>
+        <v>-0.1095449303293964</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4282,7 +4282,7 @@
         <v>28.24</v>
       </c>
       <c r="C355">
-        <v>-0.08042421678641287</v>
+        <v>-0.1061311466686275</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4293,7 +4293,7 @@
         <v>28.32</v>
       </c>
       <c r="C356">
-        <v>-0.03926851858159063</v>
+        <v>-0.1024988503246034</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4304,7 +4304,7 @@
         <v>28.4</v>
       </c>
       <c r="C357">
-        <v>-0.06413109652065307</v>
+        <v>-0.09866084267976123</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4315,7 +4315,7 @@
         <v>28.48</v>
       </c>
       <c r="C358">
-        <v>-0.01497138268827898</v>
+        <v>-0.09463025048900774</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4326,7 +4326,7 @@
         <v>28.56</v>
       </c>
       <c r="C359">
-        <v>-0.04580586378631075</v>
+        <v>-0.09042048698665649</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4337,7 +4337,7 @@
         <v>28.64</v>
       </c>
       <c r="C360">
-        <v>-0.0077702713961946</v>
+        <v>-0.0860452128746118</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4348,7 +4348,7 @@
         <v>28.72</v>
       </c>
       <c r="C361">
-        <v>0.01752888106847077</v>
+        <v>-0.08151829729391331</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4359,7 +4359,7 @@
         <v>28.8</v>
       </c>
       <c r="C362">
-        <v>-0.04682894492680909</v>
+        <v>-0.07685377888019909</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4370,7 +4370,7 @@
         <v>28.88</v>
       </c>
       <c r="C363">
-        <v>-0.05776524417600151</v>
+        <v>-0.07206582700181145</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4381,7 +4381,7 @@
         <v>28.96</v>
       </c>
       <c r="C364">
-        <v>0.02296214035767957</v>
+        <v>-0.06716870327724782</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4392,7 +4392,7 @@
         <v>29.04</v>
       </c>
       <c r="C365">
-        <v>-0.008020785577664225</v>
+        <v>-0.06217672346640155</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4403,7 +4403,7 @@
         <v>29.12</v>
       </c>
       <c r="C366">
-        <v>0.04036981725793333</v>
+        <v>-0.0571042198275749</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4414,7 +4414,7 @@
         <v>29.2</v>
       </c>
       <c r="C367">
-        <v>0.01169493597059051</v>
+        <v>-0.05196550402959921</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4425,7 +4425,7 @@
         <v>29.28</v>
       </c>
       <c r="C368">
-        <v>0.052616471755509</v>
+        <v>-0.04677483070553889</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4436,7 +4436,7 @@
         <v>29.36</v>
       </c>
       <c r="C369">
-        <v>0.01306071868284667</v>
+        <v>-0.0415463617314485</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4447,7 +4447,7 @@
         <v>29.44</v>
       </c>
       <c r="C370">
-        <v>0.01634846208009699</v>
+        <v>-0.03629413131045514</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4458,7 +4458,7 @@
         <v>29.52</v>
       </c>
       <c r="C371">
-        <v>-0.0174892216318828</v>
+        <v>-0.03103201193909979</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4469,7 +4469,7 @@
         <v>29.6</v>
       </c>
       <c r="C372">
-        <v>0.009796835769007903</v>
+        <v>-0.02577368132938021</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4480,7 +4480,7 @@
         <v>29.68</v>
       </c>
       <c r="C373">
-        <v>-0.01791073362668224</v>
+        <v>-0.02053259035631957</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4491,7 +4491,7 @@
         <v>29.76</v>
       </c>
       <c r="C374">
-        <v>0.0007175858548284265</v>
+        <v>-0.01532193209713648</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4502,7 +4502,7 @@
         <v>29.84</v>
       </c>
       <c r="C375">
-        <v>0.06440910724649876</v>
+        <v>-0.01015461202425085</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4513,7 +4513,7 @@
         <v>29.92</v>
       </c>
       <c r="C376">
-        <v>-0.002003250417504346</v>
+        <v>-0.005043219410383229</v>
       </c>
     </row>
   </sheetData>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -399,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1921374006411337</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>0.08</v>
       </c>
       <c r="C3">
-        <v>0.09968793434711866</v>
+        <v>0.3582981694623078</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>0.16</v>
       </c>
       <c r="C4">
-        <v>0.1975374109453576</v>
+        <v>0.2837398917622031</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>0.24</v>
       </c>
       <c r="C5">
-        <v>0.2933261917971167</v>
+        <v>0.04177788417111955</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>0.32</v>
       </c>
       <c r="C6">
-        <v>0.386840861270223</v>
+        <v>0.5515439981897865</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>0.4</v>
       </c>
       <c r="C7">
-        <v>0.4778772344239507</v>
+        <v>0.5926385016282614</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>0.48</v>
       </c>
       <c r="C8">
-        <v>0.5662407351360217</v>
+        <v>0.5767278749122211</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C9">
-        <v>0.6517467435383462</v>
+        <v>0.4739558414106148</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>0.64</v>
       </c>
       <c r="C10">
-        <v>0.7342209123559399</v>
+        <v>0.4835575745905336</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>0.72</v>
       </c>
       <c r="C11">
-        <v>0.8134994518297891</v>
+        <v>0.5749841381649208</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>0.8</v>
       </c>
       <c r="C12">
-        <v>0.889429382990227</v>
+        <v>0.668144220965743</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>0.88</v>
       </c>
       <c r="C13">
-        <v>0.9618687591324085</v>
+        <v>1.122298906491024</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>0.96</v>
       </c>
       <c r="C14">
-        <v>1.030686855429536</v>
+        <v>1.327339269061888</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>1.04</v>
       </c>
       <c r="C15">
-        <v>1.095764326702365</v>
+        <v>0.8955233496082365</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>1.12</v>
       </c>
       <c r="C16">
-        <v>1.156993333445067</v>
+        <v>1.179520054460466</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>1.2</v>
       </c>
       <c r="C17">
-        <v>1.214277636287478</v>
+        <v>1.228464069121259</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>1.28</v>
       </c>
       <c r="C18">
-        <v>1.267532659152016</v>
+        <v>1.274047586268886</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>1.36</v>
       </c>
       <c r="C19">
-        <v>1.316685521439904</v>
+        <v>1.180901172554628</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>1.44</v>
       </c>
       <c r="C20">
-        <v>1.36167503965556</v>
+        <v>1.273559467371733</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>1.52</v>
       </c>
       <c r="C21">
-        <v>1.402451698950101</v>
+        <v>1.492831542028516</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>1.6</v>
       </c>
       <c r="C22">
-        <v>1.438977595134536</v>
+        <v>1.678378775380369</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>1.68</v>
       </c>
       <c r="C23">
-        <v>1.471226347780356</v>
+        <v>1.200373466222304</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>1.76</v>
       </c>
       <c r="C24">
-        <v>1.499182985089742</v>
+        <v>1.551174320833876</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>1.84</v>
       </c>
       <c r="C25">
-        <v>1.522843801279297</v>
+        <v>1.397684531230083</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>1.92</v>
       </c>
       <c r="C26">
-        <v>1.542216187280024</v>
+        <v>1.797176150954408</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>1.557318435612106</v>
+        <v>1.622019816888969</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>2.08</v>
       </c>
       <c r="C28">
-        <v>1.568179520345778</v>
+        <v>1.408213218525165</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>2.16</v>
       </c>
       <c r="C29">
-        <v>1.574838853109095</v>
+        <v>1.34472913126799</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>2.24</v>
       </c>
       <c r="C30">
-        <v>1.577346016149752</v>
+        <v>1.675725023438096</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>2.32</v>
       </c>
       <c r="C31">
-        <v>1.575760473501028</v>
+        <v>1.813340677105717</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>2.4</v>
       </c>
       <c r="C32">
-        <v>1.570151261341563</v>
+        <v>1.83891657150288</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>2.48</v>
       </c>
       <c r="C33">
-        <v>1.560596658674805</v>
+        <v>1.376886515829167</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>2.56</v>
       </c>
       <c r="C34">
-        <v>1.547183839486707</v>
+        <v>1.776872278467327</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>2.64</v>
       </c>
       <c r="C35">
-        <v>1.530008507569384</v>
+        <v>1.45670449125834</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>2.72</v>
       </c>
       <c r="C36">
-        <v>1.509174515224218</v>
+        <v>1.302193477224787</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>2.8</v>
       </c>
       <c r="C37">
-        <v>1.484793467079973</v>
+        <v>1.381781318325188</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>2.88</v>
       </c>
       <c r="C38">
-        <v>1.45698431028017</v>
+        <v>1.721029574319956</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>2.96</v>
       </c>
       <c r="C39">
-        <v>1.425872912309071</v>
+        <v>1.37313602093207</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>3.04</v>
       </c>
       <c r="C40">
-        <v>1.391591627737232</v>
+        <v>1.628755547136042</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>3.12</v>
       </c>
       <c r="C41">
-        <v>1.354278855175731</v>
+        <v>1.595798850050337</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>3.2</v>
       </c>
       <c r="C42">
-        <v>1.314078585732852</v>
+        <v>1.553620018629911</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>3.28</v>
       </c>
       <c r="C43">
-        <v>1.271139944268353</v>
+        <v>1.375496357047169</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>3.36</v>
       </c>
       <c r="C44">
-        <v>1.225616724738332</v>
+        <v>1.472207464351207</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>3.44</v>
       </c>
       <c r="C45">
-        <v>1.177666920918414</v>
+        <v>0.9593856598978439</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>3.52</v>
       </c>
       <c r="C46">
-        <v>1.127452253784396</v>
+        <v>1.280329108000961</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>3.6</v>
       </c>
       <c r="C47">
-        <v>1.075137696817778</v>
+        <v>1.368719343338809</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>3.68</v>
       </c>
       <c r="C48">
-        <v>1.020891000488818</v>
+        <v>0.9331442716084424</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>3.76</v>
       </c>
       <c r="C49">
-        <v>0.9648822171519844</v>
+        <v>0.725689074826195</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>3.84</v>
       </c>
       <c r="C50">
-        <v>0.9072832275680144</v>
+        <v>0.9227244147683556</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>3.92</v>
       </c>
       <c r="C51">
-        <v>0.848267270243344</v>
+        <v>0.6112909413905843</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="C52">
-        <v>0.7880084747515211</v>
+        <v>0.8793131682020814</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>4.08</v>
       </c>
       <c r="C53">
-        <v>0.7266814001725062</v>
+        <v>0.5910709210528112</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>4.16</v>
       </c>
       <c r="C54">
-        <v>0.6644605797545855</v>
+        <v>0.580223527915644</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>4.24</v>
       </c>
       <c r="C55">
-        <v>0.6015200728700927</v>
+        <v>0.3122883681067978</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>4.32</v>
       </c>
       <c r="C56">
-        <v>0.5380330253003912</v>
+        <v>0.7890931676347723</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>4.4</v>
       </c>
       <c r="C57">
-        <v>0.4741712388477443</v>
+        <v>0.5254057465183818</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>4.48</v>
       </c>
       <c r="C58">
-        <v>0.4101047512318752</v>
+        <v>0.3899574335677236</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>4.56</v>
       </c>
       <c r="C59">
-        <v>0.346001427187423</v>
+        <v>0.3697647080699442</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>4.64</v>
       </c>
       <c r="C60">
-        <v>0.282026561635148</v>
+        <v>0.4446288978139391</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>4.72</v>
       </c>
       <c r="C61">
-        <v>0.218342495754879</v>
+        <v>0.4221662678772302</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>4.8</v>
       </c>
       <c r="C62">
-        <v>0.1551082467419032</v>
+        <v>0.2055740767628166</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>4.88</v>
       </c>
       <c r="C63">
-        <v>0.09247915198091851</v>
+        <v>0.09816330650209086</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>4.96</v>
       </c>
       <c r="C64">
-        <v>0.03060652832298704</v>
+        <v>0.1320336974118116</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>5.04</v>
       </c>
       <c r="C65">
-        <v>-0.03036265289876727</v>
+        <v>0.1682363539853411</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>5.12</v>
       </c>
       <c r="C66">
-        <v>-0.0902860745295003</v>
+        <v>-0.02089611475862252</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>5.2</v>
       </c>
       <c r="C67">
-        <v>-0.1490263653950531</v>
+        <v>-0.3561237273095808</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>5.28</v>
       </c>
       <c r="C68">
-        <v>-0.2064513747642206</v>
+        <v>-0.1087749389374184</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>5.36</v>
       </c>
       <c r="C69">
-        <v>-0.2624344290409082</v>
+        <v>-0.200876354773566</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>5.44</v>
       </c>
       <c r="C70">
-        <v>-0.3168545703086766</v>
+        <v>-0.1811551934103198</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>5.52</v>
       </c>
       <c r="C71">
-        <v>-0.3695967764027963</v>
+        <v>-0.3387505122729052</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="C72">
-        <v>-0.4205521622375576</v>
+        <v>-0.6602992798597627</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>5.68</v>
       </c>
       <c r="C73">
-        <v>-0.469618162169063</v>
+        <v>-0.4381988269767949</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>5.76</v>
       </c>
       <c r="C74">
-        <v>-0.516698693225956</v>
+        <v>-0.6078928001993423</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>5.84</v>
       </c>
       <c r="C75">
-        <v>-0.5617042990923302</v>
+        <v>-0.3332807081758538</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>5.92</v>
       </c>
       <c r="C76">
-        <v>-0.604552274778405</v>
+        <v>-0.7662939136106469</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>6</v>
       </c>
       <c r="C77">
-        <v>-0.6451667719651444</v>
+        <v>-0.4384939520514843</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>6.08</v>
       </c>
       <c r="C78">
-        <v>-0.6834788850589131</v>
+        <v>-0.5502890485726274</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>6.16</v>
       </c>
       <c r="C79">
-        <v>-0.7194267180412324</v>
+        <v>-0.6097392122915163</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>6.24</v>
       </c>
       <c r="C80">
-        <v>-0.7529554322467062</v>
+        <v>-0.6899213545608492</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>6.32</v>
       </c>
       <c r="C81">
-        <v>-0.7840172752490742</v>
+        <v>-1.046502786006796</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>6.4</v>
       </c>
       <c r="C82">
-        <v>-0.8125715910810318</v>
+        <v>-0.6287685980673803</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>6.48</v>
       </c>
       <c r="C83">
-        <v>-0.8385848120578503</v>
+        <v>-0.777211744095477</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>6.56</v>
       </c>
       <c r="C84">
-        <v>-0.8620304325177919</v>
+        <v>-0.6931588223755087</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>6.640000000000001</v>
       </c>
       <c r="C85">
-        <v>-0.8828889648338263</v>
+        <v>-1.141281113905745</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>6.72</v>
       </c>
       <c r="C86">
-        <v>-0.9011478780910788</v>
+        <v>-0.7781262144140869</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>6.8</v>
       </c>
       <c r="C87">
-        <v>-0.9168015198627126</v>
+        <v>-0.6807906263439784</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1345,7 +1345,7 @@
         <v>6.88</v>
       </c>
       <c r="C88">
-        <v>-0.9298510215535134</v>
+        <v>-0.6981941162658652</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>6.96</v>
       </c>
       <c r="C89">
-        <v>-0.940304187815212</v>
+        <v>-1.158746474403086</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>7.04</v>
       </c>
       <c r="C90">
-        <v>-0.9481753705705187</v>
+        <v>-0.8380897956080104</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>7.12</v>
       </c>
       <c r="C91">
-        <v>-0.9534853282138495</v>
+        <v>-0.947112106918514</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>7.2</v>
       </c>
       <c r="C92">
-        <v>-0.956261070585815</v>
+        <v>-1.071343847190569</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1400,7 +1400,7 @@
         <v>7.28</v>
       </c>
       <c r="C93">
-        <v>-0.9565356903456045</v>
+        <v>-0.6666581655110141</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>7.36</v>
       </c>
       <c r="C94">
-        <v>-0.9543481813904504</v>
+        <v>-0.6594171982844499</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>7.44</v>
       </c>
       <c r="C95">
-        <v>-0.9497432449943316</v>
+        <v>-0.6533632539494372</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>7.52</v>
       </c>
       <c r="C96">
-        <v>-0.9427710843589612</v>
+        <v>-0.8706776547001638</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>7.600000000000001</v>
       </c>
       <c r="C97">
-        <v>-0.9334871882888774</v>
+        <v>-0.6609615911562217</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1455,7 +1455,7 @@
         <v>7.68</v>
       </c>
       <c r="C98">
-        <v>-0.9219521047191028</v>
+        <v>-0.9623005322996613</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1466,7 +1466,7 @@
         <v>7.76</v>
       </c>
       <c r="C99">
-        <v>-0.9082312048383485</v>
+        <v>-0.7739240691851368</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1477,7 +1477,7 @@
         <v>7.84</v>
       </c>
       <c r="C100">
-        <v>-0.8923944385631103</v>
+        <v>-0.821468311374559</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>7.92</v>
       </c>
       <c r="C101">
-        <v>-0.8745160821282395</v>
+        <v>-1.141534051542249</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1499,7 +1499,7 @@
         <v>8</v>
       </c>
       <c r="C102">
-        <v>-0.8546744785676696</v>
+        <v>-0.9561412658170212</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1510,7 +1510,7 @@
         <v>8.08</v>
       </c>
       <c r="C103">
-        <v>-0.8329517718649815</v>
+        <v>-0.8513125856582215</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>8.16</v>
       </c>
       <c r="C104">
-        <v>-0.8094336355573599</v>
+        <v>-0.546861224584159</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1532,7 +1532,7 @@
         <v>8.24</v>
       </c>
       <c r="C105">
-        <v>-0.7842089965783259</v>
+        <v>-0.6263994354840208</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>8.32</v>
       </c>
       <c r="C106">
-        <v>-0.7573697551243913</v>
+        <v>-0.8583299902447538</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>8.4</v>
       </c>
       <c r="C107">
-        <v>-0.7290105013285277</v>
+        <v>-0.5290428726393586</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1565,7 +1565,7 @@
         <v>8.48</v>
       </c>
       <c r="C108">
-        <v>-0.6992282295191371</v>
+        <v>-0.4617079958653788</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1576,7 +1576,7 @@
         <v>8.56</v>
       </c>
       <c r="C109">
-        <v>-0.6681220508370348</v>
+        <v>-0.8243701719696884</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1587,7 +1587,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="C110">
-        <v>-0.6357929049749356</v>
+        <v>-0.364131439407343</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1598,7 +1598,7 @@
         <v>8.720000000000001</v>
       </c>
       <c r="C111">
-        <v>-0.6023432717940316</v>
+        <v>-0.6791793916394985</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1609,7 +1609,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="C112">
-        <v>-0.5678768835606024</v>
+        <v>-0.5496361638371891</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1620,7 +1620,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="C113">
-        <v>-0.5324984385322161</v>
+        <v>-0.5727716395705299</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1631,7 +1631,7 @@
         <v>8.960000000000001</v>
       </c>
       <c r="C114">
-        <v>-0.4963133166080115</v>
+        <v>-0.242743703117474</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1642,7 +1642,7 @@
         <v>9.040000000000001</v>
       </c>
       <c r="C115">
-        <v>-0.4594272977409372</v>
+        <v>-0.1965561282257126</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1653,7 +1653,7 @@
         <v>9.120000000000001</v>
       </c>
       <c r="C116">
-        <v>-0.4219462837916174</v>
+        <v>-0.4185582896922483</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1664,7 +1664,7 @@
         <v>9.200000000000001</v>
       </c>
       <c r="C117">
-        <v>-0.3839760244839136</v>
+        <v>-0.258815583764173</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="C118">
-        <v>-0.3456218481012105</v>
+        <v>-0.3825630344293644</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1686,7 +1686,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="C119">
-        <v>-0.3069883975401387</v>
+        <v>-0.430887942845664</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1697,7 +1697,7 @@
         <v>9.44</v>
       </c>
       <c r="C120">
-        <v>-0.2681793723149088</v>
+        <v>0.03118208825451729</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1708,7 +1708,7 @@
         <v>9.52</v>
       </c>
       <c r="C121">
-        <v>-0.2292972770806943</v>
+        <v>-0.2834375954588424</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1719,7 +1719,7 @@
         <v>9.6</v>
       </c>
       <c r="C122">
-        <v>-0.1904431772187529</v>
+        <v>0.08762153046002444</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1730,7 +1730,7 @@
         <v>9.68</v>
       </c>
       <c r="C123">
-        <v>-0.151716461999206</v>
+        <v>-0.3861901208432574</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>9.76</v>
       </c>
       <c r="C124">
-        <v>-0.1132146158097493</v>
+        <v>-0.3107163339054922</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1752,7 +1752,7 @@
         <v>9.84</v>
       </c>
       <c r="C125">
-        <v>-0.07503299791006422</v>
+        <v>-0.193431624546153</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>9.92</v>
       </c>
       <c r="C126">
-        <v>-0.03726463114253728</v>
+        <v>-0.1220257021857484</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1774,7 +1774,7 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>-1.802089520410896e-16</v>
+        <v>-0.2941215827201613</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1785,7 +1785,7 @@
         <v>10.08</v>
       </c>
       <c r="C128">
-        <v>0.03667314157915358</v>
+        <v>0.1990048579384585</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>10.16</v>
       </c>
       <c r="C129">
-        <v>0.07266995234903151</v>
+        <v>-0.1458192330763721</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1807,7 +1807,7 @@
         <v>10.24</v>
       </c>
       <c r="C130">
-        <v>0.1079086755192707</v>
+        <v>-0.1177648195302443</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1818,7 +1818,7 @@
         <v>10.32</v>
       </c>
       <c r="C131">
-        <v>0.1423107998663689</v>
+        <v>0.01289895175235414</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1829,7 +1829,7 @@
         <v>10.4</v>
       </c>
       <c r="C132">
-        <v>0.1758012099484374</v>
+        <v>0.4345935785921197</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1840,7 +1840,7 @@
         <v>10.48</v>
       </c>
       <c r="C133">
-        <v>0.2083083252103461</v>
+        <v>0.1047921986282131</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1851,7 +1851,7 @@
         <v>10.56</v>
       </c>
       <c r="C134">
-        <v>0.2397642277981942</v>
+        <v>-0.04499302099053837</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1862,7 +1862,7 @@
         <v>10.64</v>
       </c>
       <c r="C135">
-        <v>0.27010477893389</v>
+        <v>0.3501830572016972</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>10.72</v>
       </c>
       <c r="C136">
-        <v>0.2992697237324175</v>
+        <v>0.3952557706426746</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1884,7 +1884,7 @@
         <v>10.8</v>
       </c>
       <c r="C137">
-        <v>0.3272027843759057</v>
+        <v>0.2539787244690468</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1895,7 +1895,7 @@
         <v>10.88</v>
       </c>
       <c r="C138">
-        <v>0.3538517415898991</v>
+        <v>0.05619909304035159</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1906,7 +1906,7 @@
         <v>10.96</v>
       </c>
       <c r="C139">
-        <v>0.379168504398169</v>
+        <v>0.5641452700735073</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>11.04</v>
       </c>
       <c r="C140">
-        <v>0.4031091681628676</v>
+        <v>0.2669466151567016</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1928,7 +1928,7 @@
         <v>11.12</v>
       </c>
       <c r="C141">
-        <v>0.4256340609468556</v>
+        <v>0.4182398755667533</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1939,7 +1939,7 @@
         <v>11.2</v>
       </c>
       <c r="C142">
-        <v>0.4467077782644175</v>
+        <v>0.2557729334828567</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1950,7 +1950,7 @@
         <v>11.28</v>
       </c>
       <c r="C143">
-        <v>0.4662992063153959</v>
+        <v>0.6297980888214669</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1961,7 +1961,7 @@
         <v>11.36</v>
       </c>
       <c r="C144">
-        <v>0.4843815338258407</v>
+        <v>0.2369825031816838</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1972,7 +1972,7 @@
         <v>11.44</v>
       </c>
       <c r="C145">
-        <v>0.5009322526455888</v>
+        <v>0.4044256620803109</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>11.52</v>
       </c>
       <c r="C146">
-        <v>0.5159331472797032</v>
+        <v>0.6070958841687064</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1994,7 +1994,7 @@
         <v>11.6</v>
       </c>
       <c r="C147">
-        <v>0.529370273556319</v>
+        <v>0.5416272216970028</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2005,7 +2005,7 @@
         <v>11.68</v>
       </c>
       <c r="C148">
-        <v>0.5412339266581393</v>
+        <v>0.5535285076086459</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2016,7 +2016,7 @@
         <v>11.76</v>
       </c>
       <c r="C149">
-        <v>0.5515185987685489</v>
+        <v>0.5340214605075256</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2027,7 +2027,7 @@
         <v>11.84</v>
       </c>
       <c r="C150">
-        <v>0.5602229266060228</v>
+        <v>0.6674811005561258</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>11.92</v>
       </c>
       <c r="C151">
-        <v>0.5673496291421274</v>
+        <v>0.6905203165485092</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2049,7 +2049,7 @@
         <v>12</v>
       </c>
       <c r="C152">
-        <v>0.5729054358189662</v>
+        <v>0.5062212397522101</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>12.08</v>
       </c>
       <c r="C153">
-        <v>0.576901005601305</v>
+        <v>0.6446638166017111</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2071,7 +2071,7 @@
         <v>12.16</v>
       </c>
       <c r="C154">
-        <v>0.5793508372168488</v>
+        <v>0.4877326982064855</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>12.24</v>
       </c>
       <c r="C155">
-        <v>0.5802731709551714</v>
+        <v>0.6465247786960715</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2093,7 +2093,7 @@
         <v>12.32</v>
       </c>
       <c r="C156">
-        <v>0.5796898824116055</v>
+        <v>0.466613231705882</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2104,7 +2104,7 @@
         <v>12.4</v>
       </c>
       <c r="C157">
-        <v>0.5776263685769693</v>
+        <v>0.6364750814017949</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2115,7 +2115,7 @@
         <v>12.48</v>
       </c>
       <c r="C158">
-        <v>0.5741114266873074</v>
+        <v>0.4142622911540718</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2126,7 +2126,7 @@
         <v>12.56</v>
       </c>
       <c r="C159">
-        <v>0.5691771262598561</v>
+        <v>0.5415046857592647</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2137,7 +2137,7 @@
         <v>12.64</v>
       </c>
       <c r="C160">
-        <v>0.5628586747521773</v>
+        <v>0.3730688440167828</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2148,7 +2148,7 @@
         <v>12.72</v>
       </c>
       <c r="C161">
-        <v>0.5551942772908678</v>
+        <v>0.7241199087426299</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>12.8</v>
       </c>
       <c r="C162">
-        <v>0.5462249909243888</v>
+        <v>0.5138986054270773</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>12.88</v>
       </c>
       <c r="C163">
-        <v>0.5359945738614279</v>
+        <v>0.3925782997856874</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2181,7 +2181,7 @@
         <v>12.96</v>
       </c>
       <c r="C164">
-        <v>0.5245493301617578</v>
+        <v>0.3176362834581775</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>13.04</v>
       </c>
       <c r="C165">
-        <v>0.5119379503508309</v>
+        <v>0.6945049267227823</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2203,7 +2203,7 @@
         <v>13.12</v>
       </c>
       <c r="C166">
-        <v>0.4982113484323484</v>
+        <v>0.7756081757813903</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2214,7 +2214,7 @@
         <v>13.2</v>
       </c>
       <c r="C167">
-        <v>0.4834224957747607</v>
+        <v>0.3926352909566549</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2225,7 +2225,7 @@
         <v>13.28</v>
       </c>
       <c r="C168">
-        <v>0.4676262523481399</v>
+        <v>0.3994819013044233</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>13.36</v>
       </c>
       <c r="C169">
-        <v>0.4508791957871112</v>
+        <v>0.5102580544747839</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>13.44</v>
       </c>
       <c r="C170">
-        <v>0.4332394487535591</v>
+        <v>0.3729227398537978</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2258,7 +2258,7 @@
         <v>13.52</v>
       </c>
       <c r="C171">
-        <v>0.414766505069687</v>
+        <v>0.1484075086722718</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>13.6</v>
       </c>
       <c r="C172">
-        <v>0.395521055087676</v>
+        <v>0.5135467285523971</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2280,7 +2280,7 @@
         <v>13.68</v>
       </c>
       <c r="C173">
-        <v>0.3755648107567813</v>
+        <v>0.1279868945182321</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>13.76</v>
       </c>
       <c r="C174">
-        <v>0.3549603308421342</v>
+        <v>0.6398228936886441</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2302,7 +2302,7 @@
         <v>13.84</v>
       </c>
       <c r="C175">
-        <v>0.333770846741944</v>
+        <v>0.1775207164269702</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>13.92</v>
       </c>
       <c r="C176">
-        <v>0.3120600893411465</v>
+        <v>0.5009828994675501</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2324,7 +2324,7 @@
         <v>14</v>
       </c>
       <c r="C177">
-        <v>0.2898921173299502</v>
+        <v>0.5684097564634936</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2335,7 +2335,7 @@
         <v>14.08</v>
       </c>
       <c r="C178">
-        <v>0.2673311474051427</v>
+        <v>0.4623378281552875</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>14.16</v>
       </c>
       <c r="C179">
-        <v>0.2444413867605692</v>
+        <v>0.453698906856658</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>14.24</v>
       </c>
       <c r="C180">
-        <v>0.2212868682608552</v>
+        <v>0.02623200870733339</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2368,7 +2368,7 @@
         <v>14.32</v>
       </c>
       <c r="C181">
-        <v>0.1979312886792887</v>
+        <v>0.1701720809415927</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>14.4</v>
       </c>
       <c r="C182">
-        <v>0.1744378503668788</v>
+        <v>-0.0600187241664793</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2390,7 +2390,7 @@
         <v>14.48</v>
       </c>
       <c r="C183">
-        <v>0.1508691067049356</v>
+        <v>-0.1308197360293125</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>14.56</v>
       </c>
       <c r="C184">
-        <v>0.1272868116782312</v>
+        <v>-0.01900527218244363</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>14.64</v>
       </c>
       <c r="C185">
-        <v>0.1037517738898417</v>
+        <v>0.01629429566633031</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>14.72</v>
       </c>
       <c r="C186">
-        <v>0.08032371532228282</v>
+        <v>-0.03251846223786251</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>14.8</v>
       </c>
       <c r="C187">
-        <v>0.05706113513249325</v>
+        <v>0.1735052463949396</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>14.88</v>
       </c>
       <c r="C188">
-        <v>0.03402117875074868</v>
+        <v>-0.2399860820734319</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>14.96</v>
       </c>
       <c r="C189">
-        <v>0.0112595125356585</v>
+        <v>-0.02717307326980558</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2467,7 +2467,7 @@
         <v>15.04</v>
       </c>
       <c r="C190">
-        <v>-0.01116979578088087</v>
+        <v>-0.1385270796287135</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2478,7 +2478,7 @@
         <v>15.12</v>
       </c>
       <c r="C191">
-        <v>-0.03321439064347584</v>
+        <v>0.08520351930628786</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>15.2</v>
       </c>
       <c r="C192">
-        <v>-0.05482373602134356</v>
+        <v>-0.1854215628516028</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2500,7 +2500,7 @@
         <v>15.28</v>
       </c>
       <c r="C193">
-        <v>-0.07594921637733791</v>
+        <v>-0.2174257296801674</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>15.36</v>
       </c>
       <c r="C194">
-        <v>-0.09654423109971574</v>
+        <v>-0.3817262888331878</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2522,7 +2522,7 @@
         <v>15.44</v>
       </c>
       <c r="C195">
-        <v>-0.1165642822577735</v>
+        <v>-0.2237915826126689</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>15.52</v>
       </c>
       <c r="C196">
-        <v>-0.1359670555618268</v>
+        <v>0.01190343330198509</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2544,7 +2544,7 @@
         <v>15.6</v>
       </c>
       <c r="C197">
-        <v>-0.154712494427394</v>
+        <v>0.08837382431070021</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2555,7 +2555,7 @@
         <v>15.68</v>
       </c>
       <c r="C198">
-        <v>-0.1727628670627148</v>
+        <v>-0.34540457034903</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2566,7 +2566,7 @@
         <v>15.76</v>
       </c>
       <c r="C199">
-        <v>-0.1900828265179793</v>
+        <v>-0.1922926476348771</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2577,7 +2577,7 @@
         <v>15.84</v>
       </c>
       <c r="C200">
-        <v>-0.2066394636536828</v>
+        <v>-0.503576085195705</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2588,7 +2588,7 @@
         <v>15.92</v>
       </c>
       <c r="C201">
-        <v>-0.2224023530044036</v>
+        <v>-0.007037001688114497</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2599,7 +2599,7 @@
         <v>16</v>
       </c>
       <c r="C202">
-        <v>-0.2373435915329206</v>
+        <v>-0.0381936140855261</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2610,7 +2610,7 @@
         <v>16.08</v>
       </c>
       <c r="C203">
-        <v>-0.2514378302879534</v>
+        <v>-0.379863147228759</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>16.16</v>
       </c>
       <c r="C204">
-        <v>-0.2646622989968136</v>
+        <v>-0.06467394634264154</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2632,7 +2632,7 @@
         <v>16.24</v>
       </c>
       <c r="C205">
-        <v>-0.2769968236419204</v>
+        <v>0.007419344280875151</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2643,7 +2643,7 @@
         <v>16.32</v>
       </c>
       <c r="C206">
-        <v>-0.2884238370873861</v>
+        <v>-0.386839800211105</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>16.4</v>
       </c>
       <c r="C207">
-        <v>-0.2989283828386793</v>
+        <v>-0.2404158913412461</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2665,7 +2665,7 @@
         <v>16.48</v>
       </c>
       <c r="C208">
-        <v>-0.3084981120347011</v>
+        <v>-0.3670390226079621</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2676,7 +2676,7 @@
         <v>16.56</v>
       </c>
       <c r="C209">
-        <v>-0.3171232737874219</v>
+        <v>-0.20298641146445</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2687,7 +2687,7 @@
         <v>16.64</v>
       </c>
       <c r="C210">
-        <v>-0.324796698999501</v>
+        <v>-0.1282870386991658</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2698,7 +2698,7 @@
         <v>16.72</v>
       </c>
       <c r="C211">
-        <v>-0.3315137778049768</v>
+        <v>-0.551064548335144</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2709,7 +2709,7 @@
         <v>16.8</v>
       </c>
       <c r="C212">
-        <v>-0.3372724307922237</v>
+        <v>-0.5164779766240677</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>16.88</v>
       </c>
       <c r="C213">
-        <v>-0.3420730741818012</v>
+        <v>-0.5498117929135281</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>16.96</v>
       </c>
       <c r="C214">
-        <v>-0.3459185791446271</v>
+        <v>-0.574726704590684</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2742,7 +2742,7 @@
         <v>17.04</v>
       </c>
       <c r="C215">
-        <v>-0.3488142254580077</v>
+        <v>-0.5015968685558314</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2753,7 +2753,7 @@
         <v>17.12</v>
       </c>
       <c r="C216">
-        <v>-0.3507676497084802</v>
+        <v>-0.3363552902909301</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2764,7 +2764,7 @@
         <v>17.2</v>
       </c>
       <c r="C217">
-        <v>-0.3517887882611148</v>
+        <v>-0.2519573704175914</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>17.28</v>
       </c>
       <c r="C218">
-        <v>-0.3518898152248808</v>
+        <v>-0.2461251942769895</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>17.36</v>
       </c>
       <c r="C219">
-        <v>-0.3510850756529011</v>
+        <v>-0.206535381992641</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2797,7 +2797,7 @@
         <v>17.44</v>
       </c>
       <c r="C220">
-        <v>-0.3493910142248668</v>
+        <v>-0.5248617635608616</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2808,7 +2808,7 @@
         <v>17.52</v>
       </c>
       <c r="C221">
-        <v>-0.3468260996665694</v>
+        <v>-0.3547977156029906</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2819,7 +2819,7 @@
         <v>17.6</v>
       </c>
       <c r="C222">
-        <v>-0.3434107451684131</v>
+        <v>-0.232607513507314</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>17.68</v>
       </c>
       <c r="C223">
-        <v>-0.3391672250708987</v>
+        <v>-0.3439222389825302</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2841,7 +2841,7 @@
         <v>17.76</v>
       </c>
       <c r="C224">
-        <v>-0.3341195880903973</v>
+        <v>-0.1430291530787567</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2852,7 +2852,7 @@
         <v>17.84</v>
       </c>
       <c r="C225">
-        <v>-0.3282935673631001</v>
+        <v>-0.5451247607261145</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2863,7 +2863,7 @@
         <v>17.92</v>
       </c>
       <c r="C226">
-        <v>-0.3217164875887757</v>
+        <v>-0.3371597396378289</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2874,7 +2874,7 @@
         <v>18</v>
       </c>
       <c r="C227">
-        <v>-0.3144171695589683</v>
+        <v>-0.4355453939937129</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2885,7 +2885,7 @@
         <v>18.08</v>
       </c>
       <c r="C228">
-        <v>-0.3064258323564521</v>
+        <v>-0.05665955554771346</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2896,7 +2896,7 @@
         <v>18.16</v>
       </c>
       <c r="C229">
-        <v>-0.2977739935142104</v>
+        <v>-0.03242631979202742</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2907,7 +2907,7 @@
         <v>18.24</v>
       </c>
       <c r="C230">
-        <v>-0.2884943674228519</v>
+        <v>-0.4022412119453292</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2918,7 +2918,7 @@
         <v>18.32</v>
       </c>
       <c r="C231">
-        <v>-0.2786207622753133</v>
+        <v>-0.4530597508814022</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2929,7 +2929,7 @@
         <v>18.4</v>
       </c>
       <c r="C232">
-        <v>-0.2681879758368515</v>
+        <v>-0.1378755181918921</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2940,7 +2940,7 @@
         <v>18.48</v>
       </c>
       <c r="C233">
-        <v>-0.257231690326797</v>
+        <v>-0.4224029927982358</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2951,7 +2951,7 @@
         <v>18.56</v>
       </c>
       <c r="C234">
-        <v>-0.2457883666962466</v>
+        <v>-0.001434357790632029</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2962,7 +2962,7 @@
         <v>18.64</v>
       </c>
       <c r="C235">
-        <v>-0.2338951385829475</v>
+        <v>-0.3462854492512319</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2973,7 +2973,7 @@
         <v>18.72</v>
       </c>
       <c r="C236">
-        <v>-0.221589706220967</v>
+        <v>-0.113215266571627</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2984,7 +2984,7 @@
         <v>18.8</v>
       </c>
       <c r="C237">
-        <v>-0.2089102305784547</v>
+        <v>-0.4164003577893095</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2995,7 +2995,7 @@
         <v>18.88</v>
       </c>
       <c r="C238">
-        <v>-0.1958952279918976</v>
+        <v>-0.4844934102052172</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3006,7 +3006,7 @@
         <v>18.96</v>
       </c>
       <c r="C239">
-        <v>-0.1825834655597006</v>
+        <v>-0.2990244634274449</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3017,7 +3017,7 @@
         <v>19.04</v>
       </c>
       <c r="C240">
-        <v>-0.1690138575518419</v>
+        <v>-0.2272422899700896</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>19.12</v>
       </c>
       <c r="C241">
-        <v>-0.1552253630856271</v>
+        <v>-0.4432140503171036</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3039,7 +3039,7 @@
         <v>19.2</v>
       </c>
       <c r="C242">
-        <v>-0.1412568853103748</v>
+        <v>-0.3320608752997136</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3050,7 +3050,7 @@
         <v>19.28</v>
       </c>
       <c r="C243">
-        <v>-0.127147172336114</v>
+        <v>0.1630506823797588</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3061,7 +3061,7 @@
         <v>19.36</v>
       </c>
       <c r="C244">
-        <v>-0.1129347201331826</v>
+        <v>-0.2488745501257643</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3072,7 +3072,7 @@
         <v>19.44</v>
       </c>
       <c r="C245">
-        <v>-0.09865767762091664</v>
+        <v>-0.2390439670600916</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3083,7 +3083,7 @@
         <v>19.52</v>
       </c>
       <c r="C246">
-        <v>-0.0843537541545795</v>
+        <v>-0.1472761542792235</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3094,7 +3094,7 @@
         <v>19.6</v>
       </c>
       <c r="C247">
-        <v>-0.07006012961014833</v>
+        <v>-0.3673561768253298</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3105,7 +3105,7 @@
         <v>19.68</v>
       </c>
       <c r="C248">
-        <v>-0.05581336725677635</v>
+        <v>-0.2235684707820226</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3116,7 +3116,7 @@
         <v>19.76</v>
       </c>
       <c r="C249">
-        <v>-0.04164932959652992</v>
+        <v>-0.269877544796069</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3127,7 +3127,7 @@
         <v>19.84</v>
       </c>
       <c r="C250">
-        <v>-0.02760309734057274</v>
+        <v>-0.08225602178896232</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3138,7 +3138,7 @@
         <v>19.92</v>
       </c>
       <c r="C251">
-        <v>-0.01370889168017612</v>
+        <v>-0.2204547930203908</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>20</v>
       </c>
       <c r="C252">
-        <v>-1.325903371419345e-16</v>
+        <v>-0.1419659695383196</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3160,7 +3160,7 @@
         <v>20.08</v>
       </c>
       <c r="C253">
-        <v>0.01349129483014013</v>
+        <v>-0.175729474567983</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3171,7 +3171,7 @@
         <v>20.16</v>
       </c>
       <c r="C254">
-        <v>0.02673378146011723</v>
+        <v>-0.2019204584922069</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3182,7 +3182,7 @@
         <v>20.24</v>
       </c>
       <c r="C255">
-        <v>0.03969738324757997</v>
+        <v>0.1401324134988826</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3193,7 +3193,7 @@
         <v>20.32</v>
       </c>
       <c r="C256">
-        <v>0.05235321752750068</v>
+        <v>-0.01530870378733889</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3204,7 +3204,7 @@
         <v>20.4</v>
       </c>
       <c r="C257">
-        <v>0.06467365087309493</v>
+        <v>-0.1059663897062287</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3215,7 +3215,7 @@
         <v>20.48</v>
       </c>
       <c r="C258">
-        <v>0.07663235026974136</v>
+        <v>0.2702596920234825</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3226,7 +3226,7 @@
         <v>20.56</v>
       </c>
       <c r="C259">
-        <v>0.08820433013530181</v>
+        <v>-0.1131592791524601</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3237,7 +3237,7 @@
         <v>20.64</v>
       </c>
       <c r="C260">
-        <v>0.09936599513193517</v>
+        <v>0.292463014354944</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3248,7 +3248,7 @@
         <v>20.72</v>
       </c>
       <c r="C261">
-        <v>0.1100951787262132</v>
+        <v>0.1648080884466122</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>20.8</v>
       </c>
       <c r="C262">
-        <v>0.1203711774659481</v>
+        <v>0.1287314522623822</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3270,7 +3270,7 @@
         <v>20.88</v>
       </c>
       <c r="C263">
-        <v>0.1301747809536335</v>
+        <v>-0.0676053567367472</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3281,7 +3281,7 @@
         <v>20.96</v>
       </c>
       <c r="C264">
-        <v>0.1394882975078097</v>
+        <v>0.2881222644140299</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3292,7 +3292,7 @@
         <v>21.04</v>
       </c>
       <c r="C265">
-        <v>0.1482955755148407</v>
+        <v>0.1707513196559261</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3303,7 +3303,7 @@
         <v>21.12</v>
       </c>
       <c r="C266">
-        <v>0.1565820204846609</v>
+        <v>-0.04968339986727949</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3314,7 +3314,7 @@
         <v>21.2</v>
       </c>
       <c r="C267">
-        <v>0.1643346078348502</v>
+        <v>0.1707750723212852</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3325,7 +3325,7 @@
         <v>21.28</v>
       </c>
       <c r="C268">
-        <v>0.1715418914379952</v>
+        <v>0.1751661305922704</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3336,7 +3336,7 @@
         <v>21.36</v>
       </c>
       <c r="C269">
-        <v>0.1781940079776165</v>
+        <v>0.1730976029241858</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3347,7 +3347,7 @@
         <v>21.44</v>
       </c>
       <c r="C270">
-        <v>0.184282677168011</v>
+        <v>0.2734884842126293</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3358,7 +3358,7 @@
         <v>21.52</v>
       </c>
       <c r="C271">
-        <v>0.1898011979030805</v>
+        <v>-0.05433853539726022</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>21.6</v>
       </c>
       <c r="C272">
-        <v>0.1947444404086724</v>
+        <v>-0.01221815862288234</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3380,7 +3380,7 @@
         <v>21.68</v>
       </c>
       <c r="C273">
-        <v>0.1991088344820216</v>
+        <v>0.2038889634522935</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3391,7 +3391,7 @@
         <v>21.76</v>
       </c>
       <c r="C274">
-        <v>0.2028923539106307</v>
+        <v>0.2173731636026837</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3402,7 +3402,7 @@
         <v>21.84</v>
       </c>
       <c r="C275">
-        <v>0.2060944971712535</v>
+        <v>0.2557409783026494</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3413,7 +3413,7 @@
         <v>21.92</v>
       </c>
       <c r="C276">
-        <v>0.208716264517631</v>
+        <v>0.3073275783639745</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3424,7 +3424,7 @@
         <v>22</v>
       </c>
       <c r="C277">
-        <v>0.2107601315731629</v>
+        <v>0.3651808916430441</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3435,7 +3435,7 @@
         <v>22.08</v>
       </c>
       <c r="C278">
-        <v>0.2122300195518512</v>
+        <v>0.3290127641989699</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3446,7 +3446,7 @@
         <v>22.16</v>
       </c>
       <c r="C279">
-        <v>0.2131312622375416</v>
+        <v>-0.0183717838474669</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3457,7 +3457,7 @@
         <v>22.24</v>
       </c>
       <c r="C280">
-        <v>0.2134705698577693</v>
+        <v>0.07312041324496402</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>22.32</v>
       </c>
       <c r="C281">
-        <v>0.2132559899943205</v>
+        <v>-0.05206438882659409</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3479,7 +3479,7 @@
         <v>22.4</v>
       </c>
       <c r="C282">
-        <v>0.212496865677985</v>
+        <v>0.1869589642478286</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3490,7 +3490,7 @@
         <v>22.48</v>
       </c>
       <c r="C283">
-        <v>0.2112037908198661</v>
+        <v>0.2058065134332987</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3501,7 +3501,7 @@
         <v>22.56</v>
       </c>
       <c r="C284">
-        <v>0.2093885631360435</v>
+        <v>0.1693912866940143</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3512,7 +3512,7 @@
         <v>22.64</v>
       </c>
       <c r="C285">
-        <v>0.2070641347263296</v>
+        <v>-0.08244686829945388</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3523,7 +3523,7 @@
         <v>22.72</v>
       </c>
       <c r="C286">
-        <v>0.2042445604713474</v>
+        <v>0.02857013316362042</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3534,7 +3534,7 @@
         <v>22.8</v>
       </c>
       <c r="C287">
-        <v>0.2009449444151403</v>
+        <v>0.3580303037761409</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3545,7 +3545,7 @@
         <v>22.88</v>
       </c>
       <c r="C288">
-        <v>0.1971813843030677</v>
+        <v>0.3982554922066465</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3556,7 +3556,7 @@
         <v>22.96</v>
       </c>
       <c r="C289">
-        <v>0.1929709144467619</v>
+        <v>-0.009242831030712106</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3567,7 +3567,7 @@
         <v>23.04</v>
       </c>
       <c r="C290">
-        <v>0.1883314470895173</v>
+        <v>0.2027871701569243</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>23.12</v>
       </c>
       <c r="C291">
-        <v>0.1832817124465631</v>
+        <v>0.009676504948121722</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3589,7 +3589,7 @@
         <v>23.2</v>
       </c>
       <c r="C292">
-        <v>0.1778411975953232</v>
+        <v>0.1556469881844887</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3600,7 +3600,7 @@
         <v>23.28</v>
       </c>
       <c r="C293">
-        <v>0.1720300843909296</v>
+        <v>0.4708508563269195</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3611,7 +3611,7 @@
         <v>23.36</v>
       </c>
       <c r="C294">
-        <v>0.1658691865819919</v>
+        <v>0.06115821497567092</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3622,7 +3622,7 @@
         <v>23.44</v>
       </c>
       <c r="C295">
-        <v>0.1593798863008831</v>
+        <v>-0.03498826687067058</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3633,7 +3633,7 @@
         <v>23.52</v>
       </c>
       <c r="C296">
-        <v>0.1525840701016687</v>
+        <v>0.2839595236939832</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3644,7 +3644,7 @@
         <v>23.6</v>
       </c>
       <c r="C297">
-        <v>0.1455040647171933</v>
+        <v>0.1044853048875608</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3655,7 +3655,7 @@
         <v>23.68</v>
       </c>
       <c r="C298">
-        <v>0.1381625727048633</v>
+        <v>0.2494701098463528</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3666,7 +3666,7 @@
         <v>23.76</v>
       </c>
       <c r="C299">
-        <v>0.1305826081482346</v>
+        <v>0.3836458530563923</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3677,7 +3677,7 @@
         <v>23.84</v>
       </c>
       <c r="C300">
-        <v>0.1227874325787456</v>
+        <v>0.1093735245368016</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3688,7 +3688,7 @@
         <v>23.92</v>
       </c>
       <c r="C301">
-        <v>0.1148004912787311</v>
+        <v>0.3184238747004222</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3699,7 +3699,7 @@
         <v>24</v>
       </c>
       <c r="C302">
-        <v>0.1066453501233483</v>
+        <v>0.3257898406519721</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3710,7 +3710,7 @@
         <v>24.08</v>
       </c>
       <c r="C303">
-        <v>0.09834563311512438</v>
+        <v>0.1219006015289029</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3721,7 +3721,7 @@
         <v>24.16</v>
       </c>
       <c r="C304">
-        <v>0.08992496076065062</v>
+        <v>-0.1254770370554119</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3732,7 +3732,7 @@
         <v>24.24</v>
       </c>
       <c r="C305">
-        <v>0.08140688943438175</v>
+        <v>0.2919222737286522</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3743,7 +3743,7 @@
         <v>24.32</v>
       </c>
       <c r="C306">
-        <v>0.07281485186968019</v>
+        <v>-0.1512725888867555</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3754,7 +3754,7 @@
         <v>24.4</v>
       </c>
       <c r="C307">
-        <v>0.06417209891211478</v>
+        <v>0.2759996315532841</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3765,7 +3765,7 @@
         <v>24.48</v>
       </c>
       <c r="C308">
-        <v>0.05550164266464643</v>
+        <v>-0.07565880841658822</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3776,7 +3776,7 @@
         <v>24.56</v>
       </c>
       <c r="C309">
-        <v>0.04682620114868204</v>
+        <v>-0.05898472904155416</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3787,7 +3787,7 @@
         <v>24.64</v>
       </c>
       <c r="C310">
-        <v>0.03816814459914083</v>
+        <v>0.2424621423646619</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3798,7 +3798,7 @@
         <v>24.72</v>
       </c>
       <c r="C311">
-        <v>0.02954944350557576</v>
+        <v>0.02548322775842553</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3809,7 +3809,7 @@
         <v>24.8</v>
       </c>
       <c r="C312">
-        <v>0.02099161850514981</v>
+        <v>-0.004274596290795074</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3820,7 +3820,7 @@
         <v>24.88</v>
       </c>
       <c r="C313">
-        <v>0.01251569222681951</v>
+        <v>-0.0795678723772608</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3831,7 +3831,7 @@
         <v>24.96</v>
       </c>
       <c r="C314">
-        <v>0.004142143179480939</v>
+        <v>0.1633159399452377</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3842,7 +3842,7 @@
         <v>25.04</v>
       </c>
       <c r="C315">
-        <v>-0.004109138229869549</v>
+        <v>0.1374882323121733</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3853,7 +3853,7 @@
         <v>25.12</v>
       </c>
       <c r="C316">
-        <v>-0.01221889146877183</v>
+        <v>-0.2980102175399201</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3864,7 +3864,7 @@
         <v>25.2</v>
       </c>
       <c r="C317">
-        <v>-0.02016852537046223</v>
+        <v>-0.03014491680665143</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3875,7 +3875,7 @@
         <v>25.28</v>
       </c>
       <c r="C318">
-        <v>-0.02794015527830398</v>
+        <v>0.05686677679472389</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3886,7 +3886,7 @@
         <v>25.36</v>
       </c>
       <c r="C319">
-        <v>-0.03551663778528998</v>
+        <v>-0.195366933165228</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>25.44</v>
       </c>
       <c r="C320">
-        <v>-0.04288160301753994</v>
+        <v>0.1831431445713635</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3908,7 +3908,7 @@
         <v>25.52</v>
       </c>
       <c r="C321">
-        <v>-0.05001948441781149</v>
+        <v>0.139725349299266</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3919,7 +3919,7 @@
         <v>25.6</v>
       </c>
       <c r="C322">
-        <v>-0.05691554599218979</v>
+        <v>0.2336452965097034</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3930,7 +3930,7 @@
         <v>25.68</v>
       </c>
       <c r="C323">
-        <v>-0.06355590699020741</v>
+        <v>-0.07946563423334729</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3941,7 +3941,7 @@
         <v>25.76</v>
       </c>
       <c r="C324">
-        <v>-0.06992756399572261</v>
+        <v>0.1730615812823623</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3952,7 +3952,7 @@
         <v>25.84</v>
       </c>
       <c r="C325">
-        <v>-0.07601841041288335</v>
+        <v>-0.2959549879516651</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3963,7 +3963,7 @@
         <v>25.92</v>
       </c>
       <c r="C326">
-        <v>-0.08181725333847378</v>
+        <v>-0.00699122398636795</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3974,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="C327">
-        <v>-0.08731382781875388</v>
+        <v>0.0175104669586261</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3985,7 +3985,7 @@
         <v>26.08</v>
       </c>
       <c r="C328">
-        <v>-0.09249880849569223</v>
+        <v>-0.04116011483867501</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3996,7 +3996,7 @@
         <v>26.16</v>
       </c>
       <c r="C329">
-        <v>-0.09736381865409693</v>
+        <v>0.05504247419775102</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4007,7 +4007,7 @@
         <v>26.24</v>
       </c>
       <c r="C330">
-        <v>-0.1019014366876542</v>
+        <v>0.1142883442649222</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4018,7 +4018,7 @@
         <v>26.32</v>
       </c>
       <c r="C331">
-        <v>-0.1061052000082309</v>
+        <v>-0.3506956141151913</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4029,7 +4029,7 @@
         <v>26.4</v>
       </c>
       <c r="C332">
-        <v>-0.1099696064289765</v>
+        <v>-0.3274724718645223</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4040,7 +4040,7 @@
         <v>26.48</v>
       </c>
       <c r="C333">
-        <v>-0.1134901130577707</v>
+        <v>-0.3951428598375191</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4051,7 +4051,7 @@
         <v>26.56</v>
       </c>
       <c r="C334">
-        <v>-0.1166631327433752</v>
+        <v>0.05485457741512921</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4062,7 +4062,7 @@
         <v>26.64</v>
       </c>
       <c r="C335">
-        <v>-0.1194860281222656</v>
+        <v>0.09532269736372626</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4073,7 +4073,7 @@
         <v>26.72</v>
       </c>
       <c r="C336">
-        <v>-0.1219571033195286</v>
+        <v>-0.2621038153743745</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4084,7 +4084,7 @@
         <v>26.8</v>
       </c>
       <c r="C337">
-        <v>-0.1240755933623772</v>
+        <v>-0.1359307358217985</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4095,7 +4095,7 @@
         <v>26.88</v>
       </c>
       <c r="C338">
-        <v>-0.1258416513697984</v>
+        <v>-0.2398247140921542</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4106,7 +4106,7 @@
         <v>26.96</v>
       </c>
       <c r="C339">
-        <v>-0.1272563335865448</v>
+        <v>-0.2744181428375561</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4117,7 +4117,7 @@
         <v>27.04</v>
       </c>
       <c r="C340">
-        <v>-0.1283215823341413</v>
+        <v>-0.1592531922706535</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4128,7 +4128,7 @@
         <v>27.12</v>
       </c>
       <c r="C341">
-        <v>-0.1290402069557759</v>
+        <v>-0.01889874675973822</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4139,7 +4139,7 @@
         <v>27.2</v>
       </c>
       <c r="C342">
-        <v>-0.1294158628358777</v>
+        <v>0.05096942895707962</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4150,7 +4150,7 @@
         <v>27.28</v>
       </c>
       <c r="C343">
-        <v>-0.1294530285788512</v>
+        <v>0.01620164498053053</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4161,7 +4161,7 @@
         <v>27.36</v>
       </c>
       <c r="C344">
-        <v>-0.1291569814348228</v>
+        <v>-0.4203015199756647</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4172,7 +4172,7 @@
         <v>27.44</v>
       </c>
       <c r="C345">
-        <v>-0.1285337710633675</v>
+        <v>0.006949445940580057</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4183,7 +4183,7 @@
         <v>27.52</v>
       </c>
       <c r="C346">
-        <v>-0.1275901917290085</v>
+        <v>-0.05874345452185398</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4194,7 +4194,7 @@
         <v>27.6</v>
       </c>
       <c r="C347">
-        <v>-0.1263337530248244</v>
+        <v>0.03820476786904148</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4205,7 +4205,7 @@
         <v>27.68</v>
       </c>
       <c r="C348">
-        <v>-0.124772649222751</v>
+        <v>0.07937656797388387</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4216,7 +4216,7 @@
         <v>27.76</v>
       </c>
       <c r="C349">
-        <v>-0.1229157273511278</v>
+        <v>-0.02015950300483954</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4227,7 +4227,7 @@
         <v>27.84</v>
       </c>
       <c r="C350">
-        <v>-0.1207724541017165</v>
+        <v>0.02742608960168236</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4238,7 +4238,7 @@
         <v>27.92</v>
       </c>
       <c r="C351">
-        <v>-0.1183528816697981</v>
+        <v>-0.2235792955278488</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4249,7 +4249,7 @@
         <v>28</v>
       </c>
       <c r="C352">
-        <v>-0.1156676126320599</v>
+        <v>-0.3315697033514685</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4260,7 +4260,7 @@
         <v>28.08</v>
       </c>
       <c r="C353">
-        <v>-0.1127277639677857</v>
+        <v>0.07815027840872024</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4271,7 +4271,7 @@
         <v>28.16</v>
       </c>
       <c r="C354">
-        <v>-0.1095449303293964</v>
+        <v>-0.132593485111491</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4282,7 +4282,7 @@
         <v>28.24</v>
       </c>
       <c r="C355">
-        <v>-0.1061311466686275</v>
+        <v>0.0715008950946875</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4293,7 +4293,7 @@
         <v>28.32</v>
       </c>
       <c r="C356">
-        <v>-0.1024988503246034</v>
+        <v>0.05011830100012049</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4304,7 +4304,7 @@
         <v>28.4</v>
       </c>
       <c r="C357">
-        <v>-0.09866084267976123</v>
+        <v>0.05998429963177133</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4315,7 +4315,7 @@
         <v>28.48</v>
       </c>
       <c r="C358">
-        <v>-0.09463025048900774</v>
+        <v>0.05707942524675021</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4326,7 +4326,7 @@
         <v>28.56</v>
       </c>
       <c r="C359">
-        <v>-0.09042048698665649</v>
+        <v>0.1283642178130995</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4337,7 +4337,7 @@
         <v>28.64</v>
       </c>
       <c r="C360">
-        <v>-0.0860452128746118</v>
+        <v>-0.1819097162365148</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4348,7 +4348,7 @@
         <v>28.72</v>
       </c>
       <c r="C361">
-        <v>-0.08151829729391331</v>
+        <v>0.1306458150332905</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4359,7 +4359,7 @@
         <v>28.8</v>
       </c>
       <c r="C362">
-        <v>-0.07685377888019909</v>
+        <v>-0.2945429433516925</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4370,7 +4370,7 @@
         <v>28.88</v>
       </c>
       <c r="C363">
-        <v>-0.07206582700181145</v>
+        <v>-0.09686640003751473</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4381,7 +4381,7 @@
         <v>28.96</v>
       </c>
       <c r="C364">
-        <v>-0.06716870327724782</v>
+        <v>-0.3097317399729568</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4392,7 +4392,7 @@
         <v>29.04</v>
       </c>
       <c r="C365">
-        <v>-0.06217672346640155</v>
+        <v>-0.3391873731872625</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4403,7 +4403,7 @@
         <v>29.12</v>
       </c>
       <c r="C366">
-        <v>-0.0571042198275749</v>
+        <v>0.01771207719723085</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4414,7 +4414,7 @@
         <v>29.2</v>
       </c>
       <c r="C367">
-        <v>-0.05196550402959921</v>
+        <v>0.1052823654892807</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4425,7 +4425,7 @@
         <v>29.28</v>
       </c>
       <c r="C368">
-        <v>-0.04677483070553889</v>
+        <v>0.1786644238325139</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4436,7 +4436,7 @@
         <v>29.36</v>
       </c>
       <c r="C369">
-        <v>-0.0415463617314485</v>
+        <v>0.001883640349126164</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4447,7 +4447,7 @@
         <v>29.44</v>
       </c>
       <c r="C370">
-        <v>-0.03629413131045514</v>
+        <v>0.1925290212539221</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4458,7 +4458,7 @@
         <v>29.52</v>
       </c>
       <c r="C371">
-        <v>-0.03103201193909979</v>
+        <v>-0.3187005172248016</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4469,7 +4469,7 @@
         <v>29.6</v>
       </c>
       <c r="C372">
-        <v>-0.02577368132938021</v>
+        <v>-0.3004236547672496</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4480,7 +4480,7 @@
         <v>29.68</v>
       </c>
       <c r="C373">
-        <v>-0.02053259035631957</v>
+        <v>-0.110643251332325</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4491,7 +4491,7 @@
         <v>29.76</v>
       </c>
       <c r="C374">
-        <v>-0.01532193209713648</v>
+        <v>-0.09167611787716751</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4502,7 +4502,7 @@
         <v>29.84</v>
       </c>
       <c r="C375">
-        <v>-0.01015461202425085</v>
+        <v>0.01646266166552554</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4513,7 +4513,7 @@
         <v>29.92</v>
       </c>
       <c r="C376">
-        <v>-0.005043219410383229</v>
+        <v>0.03811425618942007</v>
       </c>
     </row>
   </sheetData>
